--- a/products.xlsx
+++ b/products.xlsx
@@ -22,22 +22,22 @@
     <t>URL</t>
   </si>
   <si>
-    <t>SKU0001</t>
-  </si>
-  <si>
-    <t>FOCALLURE Metallic Liquid Lipstick,Non Stick Cup Lip Gloss,High Impact Lip Color with Transfer-proof Wear,Long Lasting &amp; Waterproof Lipstick Makeup for Women,RD02 Painkiller</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/FOCALLURE-Metallic-Transfer-proof-Waterproof-Painkiller/dp/B0CSK15J75</t>
-  </si>
-  <si>
-    <t>SKU0002</t>
-  </si>
-  <si>
-    <t>Powder Drop Lipstick Long Lasting Matte Lipstick With Creamy &amp; Hydrating Formula, Buildable Finish Cold Beige</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Lamel-Powder-Drop-Lipstick-Hydrating/dp/B0CV7NJQWY</t>
+    <t>SKU0978</t>
+  </si>
+  <si>
+    <t>Focallure Watery Transferproof lip cream-PK01 Berry Nude</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Focallure-Watery-Transferproof-cream-PK01-Berry/dp/B08QZ598RC?th=1</t>
+  </si>
+  <si>
+    <t>SKU033</t>
+  </si>
+  <si>
+    <t>Focallure Pure Matte Lipstick-102, Velvety, Hydrating Lipstick Locks, Comfortable Wear, Bold, Intense, Long Lasting &amp; Waterproof, Super soft texture 3.7gm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Focallure-Lipstick-102-Hydrating-Comfortable-Waterproof/dp/B08ML4SJZG/?th=1</t>
   </si>
 </sst>
 </file>

--- a/products.xlsx
+++ b/products.xlsx
@@ -1,156 +1,501 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalit\OneDrive\Desktop\Scrapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FF04D5-1924-479B-B000-17A66010A913}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{55B6CE34-9277-49F7-ADC1-E00B7D071DC2}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>SKU</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+  <si>
+    <t>Sku Code</t>
   </si>
   <si>
     <t>Product Name</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>SKU0978</t>
-  </si>
-  <si>
-    <t>Focallure Watery Transferproof lip cream-PK01 Berry Nude</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Focallure-Watery-Transferproof-cream-PK01-Berry/dp/B08QZ598RC?th=1</t>
-  </si>
-  <si>
-    <t>SKU033</t>
-  </si>
-  <si>
-    <t>Focallure Pure Matte Lipstick-102, Velvety, Hydrating Lipstick Locks, Comfortable Wear, Bold, Intense, Long Lasting &amp; Waterproof, Super soft texture 3.7gm</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Focallure-Lipstick-102-Hydrating-Comfortable-Waterproof/dp/B08ML4SJZG/?th=1</t>
+    <t>Nykaa Link</t>
+  </si>
+  <si>
+    <t>Amazon Link</t>
+  </si>
+  <si>
+    <t>Myntra</t>
+  </si>
+  <si>
+    <t>Tira</t>
+  </si>
+  <si>
+    <t>Blinkit</t>
+  </si>
+  <si>
+    <t>GC990</t>
+  </si>
+  <si>
+    <t>L.A. Girl - Hd Pro Concealer - Orange Corrector</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B00VKKIXD0</t>
+  </si>
+  <si>
+    <t>https://www.myntra.com/10861588/</t>
+  </si>
+  <si>
+    <t>https://blinkit.com/prn/m/prid/504593/</t>
+  </si>
+  <si>
+    <t>Revolution Fix &amp; Glow Fixing Spray</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B08YHT369B</t>
+  </si>
+  <si>
+    <t>https://www.myntra.com/20615242/</t>
+  </si>
+  <si>
+    <t>https://blinkit.com/prn/m/prid/544928/</t>
+  </si>
+  <si>
+    <t>Revolution Forever Flawless Allure</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B07ZWC2NJ9</t>
+  </si>
+  <si>
+    <t>https://www.myntra.com/11212894/</t>
+  </si>
+  <si>
+    <t>https://blinkit.com/prn/m/prid/520717/</t>
+  </si>
+  <si>
+    <t>Revolution Sunset Shift Peel Off Lip Stain Flushed Pink</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://www.myntra.com/34882667/</t>
+  </si>
+  <si>
+    <t>Revolution Forever Flawless Affinity Eyeshadow Palette</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B08T6Z75L9</t>
+  </si>
+  <si>
+    <t>https://www.myntra.com/14954048/</t>
+  </si>
+  <si>
+    <t>GLM642</t>
+  </si>
+  <si>
+    <t>L.A. Girl Pro coverage HD Foundation - Fair</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B01M4IGE0Y</t>
+  </si>
+  <si>
+    <t>https://www.myntra.com/2156656/</t>
+  </si>
+  <si>
+    <t>LAGCOMBO03</t>
+  </si>
+  <si>
+    <t>LA Girl Bestseller Combo III</t>
+  </si>
+  <si>
+    <t>https://www.myntra.com/15191878/</t>
+  </si>
+  <si>
+    <t>GC976</t>
+  </si>
+  <si>
+    <t>L.A. Girl - Hd Pro Concealer - Pure Beige</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/dp/B007MJKHVO</t>
+  </si>
+  <si>
+    <t>https://www.myntra.com/2156491/</t>
+  </si>
+  <si>
+    <t>https://blinkit.com/prn/m/prid/504592/</t>
+  </si>
+  <si>
+    <t>https://www.nykaa.com/l-a-girl-pro-conceal-hd/p/40862?skuId=40884</t>
+  </si>
+  <si>
+    <t>https://www.nykaa.com/makeup-revolution-fix-glow-fixing-spray/p/7883823</t>
+  </si>
+  <si>
+    <t>https://www.nykaa.com/makeup-revolution-forever-flawless/p/4241822?skuId=646072</t>
+  </si>
+  <si>
+    <t>https://www.nykaa.com/makeup-revolution-forever-flawless/p/4241822?redirectpath=slug&amp;skuId=2725253</t>
+  </si>
+  <si>
+    <t>https://www.nykaa.com/l-a-girl-pro-coverage-illuminating-liquid-foundation/p/81919?redirectpath=slug&amp;skuId=81859</t>
+  </si>
+  <si>
+    <t>https://www.nykaa.com/l-a-girl-bestseller-combo-iii/p/1374361</t>
+  </si>
+  <si>
+    <t>https://www.nykaa.com/l-a-girl-pro-conceal-hd/p/40862?redirectpath=slug&amp;skuId=40870</t>
+  </si>
+  <si>
+    <t>https://www.tirabeauty.com/product/la-girl-pro-conceal-corrector-orange-8g-nisfy9w5bvs</t>
+  </si>
+  <si>
+    <t>https://www.tirabeauty.com/product/makeup-revolution-fix-glow-fixing-spray-100-ml-7605368</t>
+  </si>
+  <si>
+    <t>https://www.tirabeauty.com/product/makeup-revolution-the-icon-palette-enchanted-icon-8-4-g-7615083</t>
+  </si>
+  <si>
+    <t>https://www.tirabeauty.com/product/makeup-revolution-pout-bomb-plumping-gloss-rosewood-rose-pink-4-6-ml-7615088</t>
+  </si>
+  <si>
+    <t>https://www.tirabeauty.com/product/makeup-revolution-streamline-waterline-eyeliner-pencil-brown-1-3g-7572797</t>
+  </si>
+  <si>
+    <t>https://www.tirabeauty.com/product/makeup-revolution-re---loaded-eyeshadow-palette---velvet-rose-165g-jf0ylxhuc-7</t>
+  </si>
+  <si>
+    <t>https://www.tirabeauty.com/product/la-girl-hd-pro-conceal-pure-beige-8g-y5eab4hoqvs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D9EEB"/>
+        <bgColor rgb="FF6D9EEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -291,67 +636,280 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E385B8D-5FE3-42D0-B7B6-0016BFEDB8F5}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="29.63"/>
+    <col min="1" max="1" width="13.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="97.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="97" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1337069</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2"/>
-      <c r="C5" s="1"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1165686</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="C6" s="1"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1930109</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1361897</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="11" t="str">
+        <f>G5</f>
+        <v>-</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4A03E5C2-A3CC-4789-BF13-96ADC52480C3}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{9770FE03-C7AB-4FB3-838A-8D59C56B3D09}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{3CE28671-0F00-4BDE-9A7D-43F625AFA909}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{4F4CFB8B-D02C-43F1-BE77-54A4DAD6FF0A}"/>
+    <hyperlink ref="G2" r:id="rId5" xr:uid="{AC83A461-E573-4501-919E-FD5F35296938}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{734E292B-C737-46E4-8633-DA3C591CA262}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{CE5F790D-A427-40DC-A952-EF6D73BE8FB6}"/>
+    <hyperlink ref="E3" r:id="rId8" xr:uid="{E72B1CC1-A4B1-4833-B3AA-3C2E9E812243}"/>
+    <hyperlink ref="F3" r:id="rId9" xr:uid="{3C173047-AB15-4141-806A-7D6A85670B03}"/>
+    <hyperlink ref="G3" r:id="rId10" xr:uid="{ABD421BA-F6BE-484A-8491-A3EA30ACD085}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{D911F569-F8B5-406D-ADBF-F5A6D40A2394}"/>
+    <hyperlink ref="D4" r:id="rId12" xr:uid="{28F484B1-AB9D-4933-94B0-76AB1AC98FEC}"/>
+    <hyperlink ref="E4" r:id="rId13" xr:uid="{28A74D5A-5B4F-4349-B507-38AC9DA228CB}"/>
+    <hyperlink ref="F4" r:id="rId14" xr:uid="{EB459CCF-11ED-493A-91F2-FAC1978E45C9}"/>
+    <hyperlink ref="G4" r:id="rId15" xr:uid="{73783C96-0418-45DD-B0BC-AF919B559511}"/>
+    <hyperlink ref="E5" r:id="rId16" xr:uid="{4BF058D6-451D-4063-B169-1A1E6FC712BB}"/>
+    <hyperlink ref="F5" r:id="rId17" xr:uid="{AC01DFA8-D025-49FE-8603-E03139586382}"/>
+    <hyperlink ref="C6" r:id="rId18" xr:uid="{F06E206D-09DE-4AAC-85E1-80F821CCE423}"/>
+    <hyperlink ref="D6" r:id="rId19" xr:uid="{D989DEAD-4E91-445C-9B29-FCEC2AB0B6D1}"/>
+    <hyperlink ref="E6" r:id="rId20" xr:uid="{3064BDE7-A17A-45A9-A7B2-E1C038FC05AA}"/>
+    <hyperlink ref="F6" r:id="rId21" xr:uid="{0520FC73-78B1-4A19-A7B3-E3F03ED3F7AD}"/>
+    <hyperlink ref="C7" r:id="rId22" xr:uid="{E09459B9-6CE1-4541-AB04-1DB06BE94608}"/>
+    <hyperlink ref="D7" r:id="rId23" xr:uid="{93C88337-29D7-4D69-9525-0761A3A0FBBF}"/>
+    <hyperlink ref="E7" r:id="rId24" xr:uid="{5B85EF9B-3E96-46E8-A2C7-0D55AD08AA02}"/>
+    <hyperlink ref="F7" r:id="rId25" xr:uid="{4A6EAFB2-1EF7-4E2A-B7FA-3BB6ABA0316E}"/>
+    <hyperlink ref="C8" r:id="rId26" xr:uid="{20B58B21-3DAE-4903-91F4-B5B9415456E6}"/>
+    <hyperlink ref="E8" r:id="rId27" xr:uid="{25C35D3C-BC01-4CE0-99CF-FC3BA2D8224A}"/>
+    <hyperlink ref="F8" r:id="rId28" display="https://www.tirabeauty.com/products/?q=963712" xr:uid="{7FC678AA-EA6B-4492-A111-9B480BAE8234}"/>
+    <hyperlink ref="C9" r:id="rId29" xr:uid="{94CDDAEA-78F3-4CF2-B669-DB7ECD632820}"/>
+    <hyperlink ref="D9" r:id="rId30" xr:uid="{6C4B99C0-BE9A-4DF1-B4B9-3F6B8AB60900}"/>
+    <hyperlink ref="E9" r:id="rId31" xr:uid="{E3DD70E9-0A2D-4C39-B337-181682F63EC8}"/>
+    <hyperlink ref="F9" r:id="rId32" xr:uid="{E91096B7-1C77-4271-9EF6-F29B4BEE39A8}"/>
+    <hyperlink ref="G9" r:id="rId33" xr:uid="{6CC9F0A3-C11F-4273-941A-47E95ED5DA44}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalit\OneDrive\Documents\Data scrapper\Data-Scrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BF328D-9769-4163-A721-B34281D1F364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E725E948-776E-4D84-A744-B48CA4ED42BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" tabRatio="399" xr2:uid="{55B6CE34-9277-49F7-ADC1-E00B7D071DC2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="1268">
   <si>
     <t>Sku Code</t>
   </si>
@@ -139,6 +139,21 @@
   </si>
   <si>
     <t>https://blinkit.com/prn/m/prid/504592/</t>
+  </si>
+  <si>
+    <t>https://www.tirabeauty.com/product/la-girl-pro-conceal-corrector-orange-8g-nisfy9w5bvs</t>
+  </si>
+  <si>
+    <t>https://www.tirabeauty.com/product/makeup-revolution-fix-glow-fixing-spray-100-ml-7605368</t>
+  </si>
+  <si>
+    <t>https://www.tirabeauty.com/product/makeup-revolution-the-icon-palette-enchanted-icon-8-4-g-7615083</t>
+  </si>
+  <si>
+    <t>https://www.tirabeauty.com/product/makeup-revolution-pout-bomb-plumping-gloss-rosewood-rose-pink-4-6-ml-7615088</t>
+  </si>
+  <si>
+    <t>https://www.tirabeauty.com/product/makeup-revolution-streamline-waterline-eyeliner-pencil-brown-1-3g-7572797</t>
   </si>
   <si>
     <t>GC978</t>
@@ -3291,61 +3306,6 @@
         <rFont val="Arial, sans-serif"/>
       </rPr>
       <t>https://www.myntra.com/30581533</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri, sans-serif"/>
-      </rPr>
-      <t>https://www.tirabeauty.com/products/?q=961292</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri, sans-serif"/>
-      </rPr>
-      <t>https://www.tirabeauty.com/products/?q=1151976</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri, sans-serif"/>
-      </rPr>
-      <t>https://www.tirabeauty.com/products/?q=1160851</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri, sans-serif"/>
-      </rPr>
-      <t>https://www.tirabeauty.com/products/?q=1160797</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri, sans-serif"/>
-      </rPr>
-      <t>https://www.tirabeauty.com/products/?q=1124431</t>
     </r>
   </si>
   <si>
@@ -4980,7 +4940,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5015,6 +4975,14 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -5116,10 +5084,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5146,20 +5115,24 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5475,7 +5448,7 @@
   <dimension ref="A1:G291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
@@ -5517,16 +5490,16 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>1078</v>
+      <c r="F2" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>11</v>
@@ -5540,7 +5513,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
@@ -5548,8 +5521,8 @@
       <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>1079</v>
+      <c r="F3" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>15</v>
@@ -5563,7 +5536,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>17</v>
@@ -5571,8 +5544,8 @@
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>1080</v>
+      <c r="F4" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -5594,8 +5567,8 @@
       <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>1081</v>
+      <c r="F5" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5609,7 +5582,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>24</v>
@@ -5617,8 +5590,8 @@
       <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>1082</v>
+      <c r="F6" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>21</v>
@@ -5632,7 +5605,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>28</v>
@@ -5640,7 +5613,7 @@
       <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>1083</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -5654,8 +5627,8 @@
       <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>466</v>
+      <c r="C8" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>21</v>
@@ -5663,7 +5636,7 @@
       <c r="E8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>1084</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -5678,7 +5651,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>35</v>
@@ -5686,7 +5659,7 @@
       <c r="E9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>1085</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -5695,21 +5668,21 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="F10" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>1086</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -5718,21 +5691,21 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>811</v>
-      </c>
-      <c r="F11" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>1087</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -5744,18 +5717,18 @@
         <v>1854559</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="F12" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>1088</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -5767,18 +5740,18 @@
         <v>1792271</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="F13" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>1089</v>
       </c>
       <c r="G13" s="7" t="s">
@@ -5787,21 +5760,21 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="F14" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>1090</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -5813,18 +5786,18 @@
         <v>1092739</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="F15" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>1091</v>
       </c>
       <c r="G15" s="7" t="s">
@@ -5833,21 +5806,21 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="F16" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>1092</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -5859,18 +5832,18 @@
         <v>21314</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="F17" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>1093</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -5879,21 +5852,21 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="F18" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>1094</v>
       </c>
       <c r="G18" s="7" t="s">
@@ -5905,18 +5878,18 @@
         <v>21134</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="F19" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>1095</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -5928,18 +5901,18 @@
         <v>1518161</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="F20" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>1096</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -5951,18 +5924,18 @@
         <v>1840729</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="F21" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>1097</v>
       </c>
       <c r="G21" s="7" t="s">
@@ -5974,18 +5947,18 @@
         <v>1705981</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="F22" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>1098</v>
       </c>
       <c r="G22" s="7" t="s">
@@ -5997,18 +5970,18 @@
         <v>1857338</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="F23" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>1099</v>
       </c>
       <c r="G23" s="7" t="s">
@@ -6017,21 +5990,21 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="F24" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>1100</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -6043,18 +6016,18 @@
         <v>1857345</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="F25" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>1101</v>
       </c>
       <c r="G25" s="7" t="s">
@@ -6066,18 +6039,18 @@
         <v>21192</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="F26" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>1102</v>
       </c>
       <c r="G26" s="7" t="s">
@@ -6086,21 +6059,21 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="F27" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>1103</v>
       </c>
       <c r="G27" s="7" t="s">
@@ -6109,19 +6082,19 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>21</v>
@@ -6135,18 +6108,18 @@
         <v>58760</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>829</v>
-      </c>
-      <c r="F29" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>1104</v>
       </c>
       <c r="G29" s="7" t="s">
@@ -6155,21 +6128,21 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="F30" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>1105</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -6181,18 +6154,18 @@
         <v>1840682</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="F31" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>1106</v>
       </c>
       <c r="G31" s="7" t="s">
@@ -6204,18 +6177,18 @@
         <v>1846103</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>490</v>
+        <v>206</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="F32" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="7" t="s">
@@ -6227,18 +6200,18 @@
         <v>1220842</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>491</v>
+        <v>207</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>496</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="F33" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>1107</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -6250,18 +6223,18 @@
         <v>21378</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="F34" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="F34" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
@@ -6273,18 +6246,18 @@
         <v>4759</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="F35" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>1108</v>
       </c>
       <c r="G35" s="7" t="s">
@@ -6296,18 +6269,18 @@
         <v>21493</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="F36" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>1109</v>
       </c>
       <c r="G36" s="7" t="s">
@@ -6316,21 +6289,21 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="F37" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>1110</v>
       </c>
       <c r="G37" s="7" t="s">
@@ -6342,18 +6315,18 @@
         <v>1792288</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="F38" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>1111</v>
       </c>
       <c r="G38" s="7" t="s">
@@ -6365,18 +6338,18 @@
         <v>20681</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>497</v>
+        <v>213</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>502</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="F39" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>1112</v>
       </c>
       <c r="G39" s="7" t="s">
@@ -6388,18 +6361,18 @@
         <v>1187886</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>498</v>
+        <v>214</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>503</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="F40" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>1113</v>
       </c>
       <c r="G40" s="7" t="s">
@@ -6411,16 +6384,16 @@
         <v>20276</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>499</v>
+        <v>215</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>504</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>21</v>
@@ -6434,18 +6407,18 @@
         <v>1929844</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="F42" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="F42" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="7" t="s">
@@ -6454,19 +6427,19 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>21</v>
@@ -6480,18 +6453,18 @@
         <v>1706018</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>844</v>
-      </c>
-      <c r="F44" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>1114</v>
       </c>
       <c r="G44" s="7" t="s">
@@ -6503,18 +6476,18 @@
         <v>1296434</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>502</v>
+        <v>219</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>507</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="F45" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>1115</v>
       </c>
       <c r="G45" s="7" t="s">
@@ -6523,21 +6496,21 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="F46" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>1116</v>
       </c>
       <c r="G46" s="7" t="s">
@@ -6549,16 +6522,16 @@
         <v>1518277</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>21</v>
@@ -6572,18 +6545,18 @@
         <v>1842389</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>504</v>
+        <v>222</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>509</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="F48" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="F48" s="13" t="s">
         <v>1117</v>
       </c>
       <c r="G48" s="7" t="s">
@@ -6592,21 +6565,21 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="F49" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="F49" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G49" s="7" t="s">
@@ -6618,18 +6591,18 @@
         <v>1434768</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>506</v>
+        <v>224</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>511</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="F50" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>1118</v>
       </c>
       <c r="G50" s="7" t="s">
@@ -6638,21 +6611,21 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="F51" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>1119</v>
       </c>
       <c r="G51" s="7" t="s">
@@ -6661,21 +6634,21 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="F52" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>1120</v>
       </c>
       <c r="G52" s="7" t="s">
@@ -6684,21 +6657,21 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="F53" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>1121</v>
       </c>
       <c r="G53" s="7" t="s">
@@ -6710,18 +6683,18 @@
         <v>1929851</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="F54" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="F54" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G54" s="7" t="s">
@@ -6733,16 +6706,16 @@
         <v>1480116</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>21</v>
@@ -6753,21 +6726,21 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="F56" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>1122</v>
       </c>
       <c r="G56" s="7" t="s">
@@ -6779,18 +6752,18 @@
         <v>1145831</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="F57" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="F57" s="13" t="s">
         <v>1123</v>
       </c>
       <c r="G57" s="7" t="s">
@@ -6799,21 +6772,21 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>513</v>
+        <v>232</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>518</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="F58" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>1124</v>
       </c>
       <c r="G58" s="7" t="s">
@@ -6822,21 +6795,21 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>859</v>
-      </c>
-      <c r="F59" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="F59" s="13" t="s">
         <v>1125</v>
       </c>
       <c r="G59" s="7" t="s">
@@ -6845,21 +6818,21 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>515</v>
+        <v>234</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>520</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="F60" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="F60" s="13" t="s">
         <v>1126</v>
       </c>
       <c r="G60" s="7" t="s">
@@ -6871,18 +6844,18 @@
         <v>40184</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>516</v>
+        <v>235</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>521</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>861</v>
-      </c>
-      <c r="F61" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="F61" s="13" t="s">
         <v>1127</v>
       </c>
       <c r="G61" s="7" t="s">
@@ -6894,18 +6867,18 @@
         <v>1171328</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>517</v>
+        <v>236</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>522</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="F62" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="F62" s="13" t="s">
         <v>1128</v>
       </c>
       <c r="G62" s="7" t="s">
@@ -6917,16 +6890,16 @@
         <v>1840767</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>21</v>
@@ -6937,21 +6910,21 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="F64" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="F64" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="7" t="s">
@@ -6960,21 +6933,21 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="F65" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="F65" s="13" t="s">
         <v>1129</v>
       </c>
       <c r="G65" s="7" t="s">
@@ -6986,18 +6959,18 @@
         <v>21008</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="F66" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="F66" s="13" t="s">
         <v>1130</v>
       </c>
       <c r="G66" s="7" t="s">
@@ -7006,21 +6979,21 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>521</v>
+        <v>241</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>526</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="F67" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="F67" s="13" t="s">
         <v>1131</v>
       </c>
       <c r="G67" s="7" t="s">
@@ -7029,21 +7002,21 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>868</v>
-      </c>
-      <c r="F68" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="F68" s="13" t="s">
         <v>1132</v>
       </c>
       <c r="G68" s="7" t="s">
@@ -7052,21 +7025,21 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="F69" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="F69" s="13" t="s">
         <v>1133</v>
       </c>
       <c r="G69" s="7" t="s">
@@ -7075,21 +7048,21 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="F70" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="F70" s="13" t="s">
         <v>1134</v>
       </c>
       <c r="G70" s="7" t="s">
@@ -7098,21 +7071,21 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="F71" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="F71" s="13" t="s">
         <v>1135</v>
       </c>
       <c r="G71" s="7" t="s">
@@ -7121,21 +7094,21 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="F72" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="F72" s="13" t="s">
         <v>1136</v>
       </c>
       <c r="G72" s="7" t="s">
@@ -7147,18 +7120,18 @@
         <v>1139908</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>527</v>
+        <v>247</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>532</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="F73" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="F73" s="13" t="s">
         <v>1137</v>
       </c>
       <c r="G73" s="7" t="s">
@@ -7167,21 +7140,21 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>874</v>
-      </c>
-      <c r="F74" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="F74" s="13" t="s">
         <v>1138</v>
       </c>
       <c r="G74" s="7" t="s">
@@ -7190,21 +7163,21 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="F75" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="F75" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G75" s="7" t="s">
@@ -7216,18 +7189,18 @@
         <v>1480123</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="F76" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="F76" s="13" t="s">
         <v>1139</v>
       </c>
       <c r="G76" s="7" t="s">
@@ -7239,18 +7212,18 @@
         <v>1092876</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>531</v>
+        <v>251</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>536</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="F77" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="F77" s="13" t="s">
         <v>1140</v>
       </c>
       <c r="G77" s="7" t="s">
@@ -7262,18 +7235,18 @@
         <v>1842396</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="F78" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="F78" s="13" t="s">
         <v>1141</v>
       </c>
       <c r="G78" s="7" t="s">
@@ -7285,18 +7258,18 @@
         <v>21299</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>533</v>
+        <v>253</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>538</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="F79" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="F79" s="13" t="s">
         <v>1142</v>
       </c>
       <c r="G79" s="7" t="s">
@@ -7308,16 +7281,16 @@
         <v>1479769</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>21</v>
@@ -7331,18 +7304,18 @@
         <v>21310</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="F81" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="F81" s="13" t="s">
         <v>1143</v>
       </c>
       <c r="G81" s="7" t="s">
@@ -7354,18 +7327,18 @@
         <v>1826174</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>536</v>
+        <v>256</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>541</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="F82" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="F82" s="13" t="s">
         <v>1144</v>
       </c>
       <c r="G82" s="7" t="s">
@@ -7377,18 +7350,18 @@
         <v>1365376</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>537</v>
+        <v>257</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>542</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>883</v>
-      </c>
-      <c r="F83" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="F83" s="13" t="s">
         <v>1145</v>
       </c>
       <c r="G83" s="7" t="s">
@@ -7397,21 +7370,21 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>884</v>
-      </c>
-      <c r="F84" s="13" t="s">
+      <c r="D84" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="F84" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G84" s="7" t="s">
@@ -7423,16 +7396,16 @@
         <v>4755</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>21</v>
@@ -7443,21 +7416,21 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>886</v>
-      </c>
-      <c r="F86" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="F86" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G86" s="7" t="s">
@@ -7469,18 +7442,18 @@
         <v>1518260</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>887</v>
-      </c>
-      <c r="F87" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="F87" s="13" t="s">
         <v>1146</v>
       </c>
       <c r="G87" s="7" t="s">
@@ -7492,18 +7465,18 @@
         <v>1121613</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>888</v>
-      </c>
-      <c r="F88" s="13" t="s">
+        <v>893</v>
+      </c>
+      <c r="F88" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G88" s="7" t="s">
@@ -7512,21 +7485,21 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>541</v>
+        <v>263</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>546</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="F89" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="F89" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G89" s="7" t="s">
@@ -7535,19 +7508,19 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>21</v>
@@ -7558,21 +7531,21 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>891</v>
-      </c>
-      <c r="F91" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="F91" s="13" t="s">
         <v>1147</v>
       </c>
       <c r="G91" s="7" t="s">
@@ -7581,21 +7554,21 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="F92" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="F92" s="13" t="s">
         <v>1148</v>
       </c>
       <c r="G92" s="7" t="s">
@@ -7604,19 +7577,19 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>21</v>
@@ -7627,21 +7600,21 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="F94" s="13" t="s">
+        <v>899</v>
+      </c>
+      <c r="F94" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G94" s="7" t="s">
@@ -7650,19 +7623,19 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>21</v>
@@ -7676,18 +7649,18 @@
         <v>21137</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>896</v>
-      </c>
-      <c r="F96" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="F96" s="13" t="s">
         <v>1149</v>
       </c>
       <c r="G96" s="7" t="s">
@@ -7696,21 +7669,21 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="F97" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="F97" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G97" s="7" t="s">
@@ -7719,21 +7692,21 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>550</v>
+        <v>272</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>555</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="F98" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="F98" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G98" s="7" t="s">
@@ -7745,18 +7718,18 @@
         <v>21198</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>551</v>
+        <v>273</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>556</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>899</v>
-      </c>
-      <c r="F99" s="13" t="s">
+        <v>904</v>
+      </c>
+      <c r="F99" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G99" s="7" t="s">
@@ -7768,18 +7741,18 @@
         <v>1108690</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="F100" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="F100" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G100" s="7" t="s">
@@ -7791,18 +7764,18 @@
         <v>4753</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="F101" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="F101" s="13" t="s">
         <v>1150</v>
       </c>
       <c r="G101" s="7" t="s">
@@ -7814,18 +7787,18 @@
         <v>1146012</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>554</v>
+        <v>276</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>559</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>902</v>
-      </c>
-      <c r="F102" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="F102" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G102" s="7" t="s">
@@ -7837,18 +7810,18 @@
         <v>1517164</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="F103" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="F103" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G103" s="7" t="s">
@@ -7860,18 +7833,19 @@
         <v>1102810</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>21</v>
+        <v>278</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="D104" s="8" t="e">
+        <f>-E2</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="F104" s="12" t="s">
+        <v>909</v>
+      </c>
+      <c r="F104" s="13" t="s">
         <v>1151</v>
       </c>
       <c r="G104" s="7" t="s">
@@ -7883,18 +7857,18 @@
         <v>1806473</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>905</v>
-      </c>
-      <c r="F105" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="F105" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G105" s="7" t="s">
@@ -7906,16 +7880,16 @@
         <v>21495</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>21</v>
@@ -7929,18 +7903,18 @@
         <v>1181426</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>559</v>
+        <v>281</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>564</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>907</v>
-      </c>
-      <c r="F107" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="F107" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G107" s="7" t="s">
@@ -7952,18 +7926,18 @@
         <v>1840750</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>560</v>
+        <v>282</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>565</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>908</v>
-      </c>
-      <c r="F108" s="12" t="s">
+        <v>913</v>
+      </c>
+      <c r="F108" s="13" t="s">
         <v>1152</v>
       </c>
       <c r="G108" s="7" t="s">
@@ -7972,19 +7946,19 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>561</v>
+        <v>283</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>566</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>21</v>
@@ -7995,21 +7969,21 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>562</v>
+        <v>284</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>567</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>910</v>
-      </c>
-      <c r="F110" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="F110" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G110" s="7" t="s">
@@ -8021,18 +7995,18 @@
         <v>1180351</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>563</v>
+        <v>285</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>568</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="F111" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="F111" s="13" t="s">
         <v>1153</v>
       </c>
       <c r="G111" s="7" t="s">
@@ -8044,18 +8018,18 @@
         <v>1220811</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>564</v>
+        <v>286</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>569</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="F112" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="F112" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G112" s="7" t="s">
@@ -8064,21 +8038,21 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="F113" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="F113" s="13" t="s">
         <v>1154</v>
       </c>
       <c r="G113" s="7" t="s">
@@ -8090,18 +8064,18 @@
         <v>1365390</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>566</v>
+        <v>288</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>571</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>914</v>
-      </c>
-      <c r="F114" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="F114" s="13" t="s">
         <v>1155</v>
       </c>
       <c r="G114" s="7" t="s">
@@ -8110,21 +8084,21 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>915</v>
-      </c>
-      <c r="F115" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="F115" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G115" s="7" t="s">
@@ -8136,18 +8110,18 @@
         <v>1518130</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>916</v>
-      </c>
-      <c r="F116" s="12" t="s">
+        <v>921</v>
+      </c>
+      <c r="F116" s="13" t="s">
         <v>1156</v>
       </c>
       <c r="G116" s="7" t="s">
@@ -8159,18 +8133,18 @@
         <v>1479844</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>917</v>
-      </c>
-      <c r="F117" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="F117" s="13" t="s">
         <v>1157</v>
       </c>
       <c r="G117" s="7" t="s">
@@ -8182,18 +8156,18 @@
         <v>21353</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>570</v>
+        <v>292</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>575</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>918</v>
-      </c>
-      <c r="F118" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="F118" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G118" s="7" t="s">
@@ -8205,16 +8179,16 @@
         <v>4082</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>21</v>
@@ -8228,18 +8202,18 @@
         <v>1846035</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>920</v>
-      </c>
-      <c r="F120" s="12" t="s">
+        <v>925</v>
+      </c>
+      <c r="F120" s="13" t="s">
         <v>1158</v>
       </c>
       <c r="G120" s="7" t="s">
@@ -8251,18 +8225,18 @@
         <v>1095310</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>573</v>
+        <v>295</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>578</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>921</v>
-      </c>
-      <c r="F121" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="F121" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G121" s="7" t="s">
@@ -8271,21 +8245,21 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>574</v>
+        <v>296</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>579</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>922</v>
-      </c>
-      <c r="F122" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="F122" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G122" s="7" t="s">
@@ -8294,21 +8268,21 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>575</v>
+        <v>297</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>580</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>923</v>
-      </c>
-      <c r="F123" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="F123" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G123" s="7" t="s">
@@ -8320,18 +8294,18 @@
         <v>1181358</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>576</v>
+        <v>298</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>581</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>924</v>
-      </c>
-      <c r="F124" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="F124" s="13" t="s">
         <v>1159</v>
       </c>
       <c r="G124" s="7" t="s">
@@ -8343,18 +8317,18 @@
         <v>1465625</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>925</v>
-      </c>
-      <c r="F125" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="F125" s="13" t="s">
         <v>1160</v>
       </c>
       <c r="G125" s="7" t="s">
@@ -8366,18 +8340,18 @@
         <v>1840798</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>578</v>
+        <v>300</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>583</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>926</v>
-      </c>
-      <c r="F126" s="12" t="s">
+        <v>931</v>
+      </c>
+      <c r="F126" s="13" t="s">
         <v>1161</v>
       </c>
       <c r="G126" s="7" t="s">
@@ -8386,21 +8360,21 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>927</v>
-      </c>
-      <c r="F127" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="F127" s="13" t="s">
         <v>1162</v>
       </c>
       <c r="G127" s="7" t="s">
@@ -8409,21 +8383,21 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="F128" s="12" t="s">
+        <v>933</v>
+      </c>
+      <c r="F128" s="13" t="s">
         <v>1163</v>
       </c>
       <c r="G128" s="7" t="s">
@@ -8432,21 +8406,21 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>581</v>
+        <v>303</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>929</v>
-      </c>
-      <c r="F129" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="F129" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G129" s="7" t="s">
@@ -8458,18 +8432,18 @@
         <v>1792349</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>930</v>
-      </c>
-      <c r="F130" s="12" t="s">
+        <v>935</v>
+      </c>
+      <c r="F130" s="13" t="s">
         <v>1164</v>
       </c>
       <c r="G130" s="7" t="s">
@@ -8478,21 +8452,21 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>583</v>
+        <v>305</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>588</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>931</v>
-      </c>
-      <c r="F131" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="F131" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G131" s="7" t="s">
@@ -8504,18 +8478,18 @@
         <v>1479899</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>932</v>
-      </c>
-      <c r="F132" s="13" t="s">
+        <v>937</v>
+      </c>
+      <c r="F132" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G132" s="7" t="s">
@@ -8524,21 +8498,21 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>933</v>
-      </c>
-      <c r="F133" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="F133" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G133" s="7" t="s">
@@ -8550,18 +8524,18 @@
         <v>1501347</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>934</v>
-      </c>
-      <c r="F134" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="F134" s="13" t="s">
         <v>1165</v>
       </c>
       <c r="G134" s="7" t="s">
@@ -8570,21 +8544,21 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>587</v>
+        <v>309</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>592</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>935</v>
-      </c>
-      <c r="F135" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="F135" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G135" s="7" t="s">
@@ -8596,18 +8570,18 @@
         <v>1705998</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="F136" s="12" t="s">
+        <v>941</v>
+      </c>
+      <c r="F136" s="13" t="s">
         <v>1166</v>
       </c>
       <c r="G136" s="7" t="s">
@@ -8616,21 +8590,21 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>937</v>
-      </c>
-      <c r="F137" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="F137" s="13" t="s">
         <v>1167</v>
       </c>
       <c r="G137" s="7" t="s">
@@ -8642,18 +8616,18 @@
         <v>1661638</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>590</v>
+        <v>312</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>595</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>938</v>
-      </c>
-      <c r="F138" s="12" t="s">
+        <v>943</v>
+      </c>
+      <c r="F138" s="13" t="s">
         <v>1168</v>
       </c>
       <c r="G138" s="7" t="s">
@@ -8665,18 +8639,18 @@
         <v>1145794</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>591</v>
+        <v>313</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>596</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>939</v>
-      </c>
-      <c r="F139" s="12" t="s">
+        <v>944</v>
+      </c>
+      <c r="F139" s="13" t="s">
         <v>1169</v>
       </c>
       <c r="G139" s="7" t="s">
@@ -8685,21 +8659,21 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>940</v>
-      </c>
-      <c r="F140" s="12" t="s">
+        <v>945</v>
+      </c>
+      <c r="F140" s="13" t="s">
         <v>1170</v>
       </c>
       <c r="G140" s="7" t="s">
@@ -8711,18 +8685,18 @@
         <v>4080</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>593</v>
+        <v>315</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>598</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>941</v>
-      </c>
-      <c r="F141" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="F141" s="13" t="s">
         <v>1171</v>
       </c>
       <c r="G141" s="7" t="s">
@@ -8734,18 +8708,18 @@
         <v>1840712</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>594</v>
+        <v>316</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>599</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>942</v>
-      </c>
-      <c r="F142" s="13" t="s">
+        <v>947</v>
+      </c>
+      <c r="F142" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G142" s="7" t="s">
@@ -8757,18 +8731,18 @@
         <v>1511209</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>943</v>
-      </c>
-      <c r="F143" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="F143" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G143" s="7" t="s">
@@ -8780,18 +8754,18 @@
         <v>1205719</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>596</v>
+        <v>318</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>601</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>944</v>
-      </c>
-      <c r="F144" s="12" t="s">
+        <v>949</v>
+      </c>
+      <c r="F144" s="13" t="s">
         <v>1172</v>
       </c>
       <c r="G144" s="7" t="s">
@@ -8800,10 +8774,10 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>21</v>
@@ -8812,9 +8786,9 @@
         <v>21</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="F145" s="12" t="s">
+        <v>950</v>
+      </c>
+      <c r="F145" s="13" t="s">
         <v>1173</v>
       </c>
       <c r="G145" s="7" t="s">
@@ -8826,18 +8800,18 @@
         <v>1846028</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="F146" s="12" t="s">
+        <v>951</v>
+      </c>
+      <c r="F146" s="13" t="s">
         <v>1174</v>
       </c>
       <c r="G146" s="7" t="s">
@@ -8849,18 +8823,18 @@
         <v>1846059</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>947</v>
-      </c>
-      <c r="F147" s="12" t="s">
+        <v>952</v>
+      </c>
+      <c r="F147" s="13" t="s">
         <v>1175</v>
       </c>
       <c r="G147" s="7" t="s">
@@ -8872,18 +8846,18 @@
         <v>21102</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>948</v>
-      </c>
-      <c r="F148" s="12" t="s">
+        <v>953</v>
+      </c>
+      <c r="F148" s="13" t="s">
         <v>1176</v>
       </c>
       <c r="G148" s="7" t="s">
@@ -8892,21 +8866,21 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>600</v>
+        <v>323</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>605</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>949</v>
-      </c>
-      <c r="F149" s="13" t="s">
+        <v>954</v>
+      </c>
+      <c r="F149" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G149" s="7" t="s">
@@ -8918,18 +8892,18 @@
         <v>1480147</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>950</v>
-      </c>
-      <c r="F150" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="F150" s="13" t="s">
         <v>1177</v>
       </c>
       <c r="G150" s="7" t="s">
@@ -8941,18 +8915,18 @@
         <v>1706001</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>951</v>
-      </c>
-      <c r="F151" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="F151" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G151" s="7" t="s">
@@ -8964,16 +8938,16 @@
         <v>1231435</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>603</v>
+        <v>326</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>608</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>21</v>
@@ -8987,18 +8961,18 @@
         <v>1705974</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>953</v>
-      </c>
-      <c r="F153" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="F153" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G153" s="7" t="s">
@@ -9010,18 +8984,18 @@
         <v>20691</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>605</v>
+        <v>328</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>610</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>954</v>
-      </c>
-      <c r="F154" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="F154" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G154" s="7" t="s">
@@ -9033,16 +9007,16 @@
         <v>1846073</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>21</v>
@@ -9053,10 +9027,10 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>21</v>
@@ -9065,7 +9039,7 @@
         <v>21</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>21</v>
@@ -9076,10 +9050,10 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>21</v>
@@ -9090,7 +9064,7 @@
       <c r="E157" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F157" s="13" t="s">
+      <c r="F157" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G157" s="7" t="s">
@@ -9099,21 +9073,21 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>607</v>
+        <v>332</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>612</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>957</v>
-      </c>
-      <c r="F158" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="F158" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G158" s="7" t="s">
@@ -9122,21 +9096,21 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>958</v>
-      </c>
-      <c r="F159" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="F159" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G159" s="7" t="s">
@@ -9148,18 +9122,18 @@
         <v>1220859</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>609</v>
+        <v>334</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>614</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>959</v>
-      </c>
-      <c r="F160" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="F160" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G160" s="7" t="s">
@@ -9171,18 +9145,18 @@
         <v>1176460</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>610</v>
+        <v>335</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>615</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>960</v>
-      </c>
-      <c r="F161" s="12" t="s">
+        <v>965</v>
+      </c>
+      <c r="F161" s="13" t="s">
         <v>1178</v>
       </c>
       <c r="G161" s="7" t="s">
@@ -9194,16 +9168,16 @@
         <v>20686</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>611</v>
+        <v>336</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>616</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>21</v>
@@ -9214,10 +9188,10 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C163" s="8" t="e">
         <v>#N/A</v>
@@ -9226,9 +9200,9 @@
         <v>21</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>962</v>
-      </c>
-      <c r="F163" s="12" t="s">
+        <v>967</v>
+      </c>
+      <c r="F163" s="13" t="s">
         <v>1179</v>
       </c>
       <c r="G163" s="7" t="s">
@@ -9240,18 +9214,18 @@
         <v>1544849</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>612</v>
+        <v>338</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>617</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>963</v>
-      </c>
-      <c r="F164" s="13" t="s">
+        <v>968</v>
+      </c>
+      <c r="F164" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G164" s="7" t="s">
@@ -9263,18 +9237,18 @@
         <v>1840828</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>613</v>
+        <v>339</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>618</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="F165" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="F165" s="13" t="s">
         <v>1180</v>
       </c>
       <c r="G165" s="7" t="s">
@@ -9286,18 +9260,18 @@
         <v>1501361</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>965</v>
-      </c>
-      <c r="F166" s="13" t="s">
+        <v>970</v>
+      </c>
+      <c r="F166" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G166" s="7" t="s">
@@ -9306,21 +9280,21 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>615</v>
+        <v>341</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>620</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>966</v>
-      </c>
-      <c r="F167" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="F167" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G167" s="7" t="s">
@@ -9332,18 +9306,18 @@
         <v>21315</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>616</v>
+        <v>342</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>621</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>967</v>
-      </c>
-      <c r="F168" s="13" t="s">
+        <v>972</v>
+      </c>
+      <c r="F168" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G168" s="7" t="s">
@@ -9352,21 +9326,21 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>617</v>
+        <v>343</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>622</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>968</v>
-      </c>
-      <c r="F169" s="13" t="s">
+        <v>973</v>
+      </c>
+      <c r="F169" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G169" s="7" t="s">
@@ -9378,18 +9352,18 @@
         <v>1853552</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>618</v>
+        <v>344</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>623</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>969</v>
-      </c>
-      <c r="F170" s="12" t="s">
+        <v>974</v>
+      </c>
+      <c r="F170" s="13" t="s">
         <v>1181</v>
       </c>
       <c r="G170" s="7" t="s">
@@ -9398,21 +9372,21 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>970</v>
-      </c>
-      <c r="F171" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="F171" s="13" t="s">
         <v>1182</v>
       </c>
       <c r="G171" s="7" t="s">
@@ -9421,21 +9395,21 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>620</v>
+        <v>346</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>625</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>971</v>
-      </c>
-      <c r="F172" s="13" t="s">
+        <v>976</v>
+      </c>
+      <c r="F172" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G172" s="7" t="s">
@@ -9447,18 +9421,18 @@
         <v>1843621</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>621</v>
+        <v>347</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>626</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="F173" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="F173" s="13" t="s">
         <v>1183</v>
       </c>
       <c r="G173" s="7" t="s">
@@ -9470,18 +9444,18 @@
         <v>1806480</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>973</v>
-      </c>
-      <c r="F174" s="13" t="s">
+        <v>978</v>
+      </c>
+      <c r="F174" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G174" s="7" t="s">
@@ -9490,21 +9464,21 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>623</v>
+        <v>349</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>628</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>974</v>
-      </c>
-      <c r="F175" s="13" t="s">
+        <v>979</v>
+      </c>
+      <c r="F175" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G175" s="7" t="s">
@@ -9516,18 +9490,18 @@
         <v>1840675</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>975</v>
-      </c>
-      <c r="F176" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="F176" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G176" s="7" t="s">
@@ -9539,18 +9513,18 @@
         <v>1840705</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>976</v>
-      </c>
-      <c r="F177" s="13" t="s">
+        <v>981</v>
+      </c>
+      <c r="F177" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G177" s="7" t="s">
@@ -9559,21 +9533,21 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>977</v>
-      </c>
-      <c r="F178" s="13" t="s">
+        <v>982</v>
+      </c>
+      <c r="F178" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G178" s="7" t="s">
@@ -9582,10 +9556,10 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>21</v>
@@ -9594,9 +9568,9 @@
         <v>21</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>978</v>
-      </c>
-      <c r="F179" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="F179" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G179" s="7" t="s">
@@ -9608,18 +9582,18 @@
         <v>1157674</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>626</v>
+        <v>354</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>631</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>979</v>
-      </c>
-      <c r="F180" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="F180" s="13" t="s">
         <v>1184</v>
       </c>
       <c r="G180" s="7" t="s">
@@ -9631,18 +9605,18 @@
         <v>1480154</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>980</v>
-      </c>
-      <c r="F181" s="12" t="s">
+        <v>985</v>
+      </c>
+      <c r="F181" s="13" t="s">
         <v>1185</v>
       </c>
       <c r="G181" s="7" t="s">
@@ -9651,21 +9625,21 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>628</v>
+        <v>356</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>633</v>
       </c>
       <c r="D182" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>981</v>
-      </c>
-      <c r="F182" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="F182" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G182" s="7" t="s">
@@ -9677,18 +9651,18 @@
         <v>1174619</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>629</v>
+        <v>357</v>
+      </c>
+      <c r="C183" s="11" t="s">
+        <v>634</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>982</v>
-      </c>
-      <c r="F183" s="13" t="s">
+        <v>987</v>
+      </c>
+      <c r="F183" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G183" s="7" t="s">
@@ -9697,21 +9671,21 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>983</v>
-      </c>
-      <c r="F184" s="13" t="s">
+        <v>988</v>
+      </c>
+      <c r="F184" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G184" s="7" t="s">
@@ -9723,18 +9697,18 @@
         <v>1148290</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>631</v>
+        <v>359</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>636</v>
       </c>
       <c r="D185" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>984</v>
-      </c>
-      <c r="F185" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="F185" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G185" s="7" t="s">
@@ -9743,21 +9717,21 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>632</v>
+        <v>360</v>
+      </c>
+      <c r="C186" s="11" t="s">
+        <v>637</v>
       </c>
       <c r="D186" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>985</v>
-      </c>
-      <c r="F186" s="13" t="s">
+        <v>990</v>
+      </c>
+      <c r="F186" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G186" s="7" t="s">
@@ -9766,10 +9740,10 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C187" s="8" t="e">
         <v>#N/A</v>
@@ -9778,9 +9752,9 @@
         <v>21</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>986</v>
-      </c>
-      <c r="F187" s="12" t="s">
+        <v>991</v>
+      </c>
+      <c r="F187" s="13" t="s">
         <v>1186</v>
       </c>
       <c r="G187" s="7" t="s">
@@ -9789,10 +9763,10 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>21</v>
@@ -9801,9 +9775,9 @@
         <v>21</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>987</v>
-      </c>
-      <c r="F188" s="12" t="s">
+        <v>992</v>
+      </c>
+      <c r="F188" s="13" t="s">
         <v>1187</v>
       </c>
       <c r="G188" s="7" t="s">
@@ -9815,18 +9789,18 @@
         <v>1146005</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>633</v>
+        <v>363</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>638</v>
       </c>
       <c r="D189" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>988</v>
-      </c>
-      <c r="F189" s="12" t="s">
+        <v>993</v>
+      </c>
+      <c r="F189" s="13" t="s">
         <v>1188</v>
       </c>
       <c r="G189" s="7" t="s">
@@ -9838,18 +9812,18 @@
         <v>1130998</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>634</v>
+        <v>364</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>639</v>
       </c>
       <c r="D190" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>989</v>
-      </c>
-      <c r="F190" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="F190" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G190" s="7" t="s">
@@ -9858,21 +9832,21 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>635</v>
+        <v>365</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>640</v>
       </c>
       <c r="D191" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>990</v>
-      </c>
-      <c r="F191" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="F191" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G191" s="7" t="s">
@@ -9884,16 +9858,16 @@
         <v>1479660</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="F192" s="6" t="s">
         <v>21</v>
@@ -9904,21 +9878,21 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>637</v>
+        <v>367</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>642</v>
       </c>
       <c r="D193" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>992</v>
-      </c>
-      <c r="F193" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="F193" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G193" s="7" t="s">
@@ -9930,18 +9904,18 @@
         <v>20688</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>638</v>
+        <v>368</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>643</v>
       </c>
       <c r="D194" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>993</v>
-      </c>
-      <c r="F194" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="F194" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G194" s="7" t="s">
@@ -9953,16 +9927,16 @@
         <v>1479158</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>639</v>
+        <v>369</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>644</v>
       </c>
       <c r="D195" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>21</v>
@@ -9976,18 +9950,18 @@
         <v>1479226</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>640</v>
+        <v>370</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>645</v>
       </c>
       <c r="D196" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>995</v>
-      </c>
-      <c r="F196" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F196" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G196" s="7" t="s">
@@ -9999,7 +9973,7 @@
         <v>21300</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>21</v>
@@ -10008,9 +9982,9 @@
         <v>21</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>996</v>
-      </c>
-      <c r="F197" s="12" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F197" s="13" t="s">
         <v>1189</v>
       </c>
       <c r="G197" s="7" t="s">
@@ -10022,16 +9996,16 @@
         <v>1479240</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>21</v>
@@ -10045,16 +10019,16 @@
         <v>1495950</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>642</v>
+        <v>373</v>
+      </c>
+      <c r="C199" s="11" t="s">
+        <v>647</v>
       </c>
       <c r="D199" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="F199" s="6" t="s">
         <v>21</v>
@@ -10068,18 +10042,18 @@
         <v>1843638</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>999</v>
-      </c>
-      <c r="F200" s="12" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F200" s="13" t="s">
         <v>1190</v>
       </c>
       <c r="G200" s="7" t="s">
@@ -10088,10 +10062,10 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>21</v>
@@ -10100,9 +10074,9 @@
         <v>21</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F201" s="12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F201" s="13" t="s">
         <v>1191</v>
       </c>
       <c r="G201" s="7" t="s">
@@ -10111,21 +10085,21 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C202" s="10" t="s">
-        <v>644</v>
+        <v>376</v>
+      </c>
+      <c r="C202" s="11" t="s">
+        <v>649</v>
       </c>
       <c r="D202" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E202" s="6" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F202" s="12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F202" s="13" t="s">
         <v>1192</v>
       </c>
       <c r="G202" s="7" t="s">
@@ -10134,10 +10108,10 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>21</v>
@@ -10146,9 +10120,9 @@
         <v>21</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F203" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F203" s="13" t="s">
         <v>1193</v>
       </c>
       <c r="G203" s="7" t="s">
@@ -10157,10 +10131,10 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>21</v>
@@ -10171,7 +10145,7 @@
       <c r="E204" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F204" s="12" t="s">
+      <c r="F204" s="13" t="s">
         <v>1194</v>
       </c>
       <c r="G204" s="7" t="s">
@@ -10180,21 +10154,21 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F205" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F205" s="13" t="s">
         <v>1195</v>
       </c>
       <c r="G205" s="7" t="s">
@@ -10203,10 +10177,10 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>21</v>
@@ -10215,9 +10189,9 @@
         <v>21</v>
       </c>
       <c r="E206" s="6" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F206" s="12" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F206" s="13" t="s">
         <v>1196</v>
       </c>
       <c r="G206" s="7" t="s">
@@ -10229,18 +10203,18 @@
         <v>1127677</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>646</v>
+        <v>381</v>
+      </c>
+      <c r="C207" s="11" t="s">
+        <v>651</v>
       </c>
       <c r="D207" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F207" s="12" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F207" s="13" t="s">
         <v>1197</v>
       </c>
       <c r="G207" s="7" t="s">
@@ -10249,10 +10223,10 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>21</v>
@@ -10261,9 +10235,9 @@
         <v>21</v>
       </c>
       <c r="E208" s="6" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F208" s="12" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F208" s="13" t="s">
         <v>1198</v>
       </c>
       <c r="G208" s="7" t="s">
@@ -10272,10 +10246,10 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>21</v>
@@ -10286,7 +10260,7 @@
       <c r="E209" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F209" s="12" t="s">
+      <c r="F209" s="13" t="s">
         <v>1199</v>
       </c>
       <c r="G209" s="7" t="s">
@@ -10295,21 +10269,21 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>647</v>
+        <v>384</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>652</v>
       </c>
       <c r="D210" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E210" s="6" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F210" s="12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F210" s="13" t="s">
         <v>1200</v>
       </c>
       <c r="G210" s="7" t="s">
@@ -10321,18 +10295,18 @@
         <v>1857352</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F211" s="12" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F211" s="13" t="s">
         <v>1201</v>
       </c>
       <c r="G211" s="7" t="s">
@@ -10341,10 +10315,10 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C212" s="8" t="s">
         <v>21</v>
@@ -10353,9 +10327,9 @@
         <v>21</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F212" s="12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F212" s="13" t="s">
         <v>1202</v>
       </c>
       <c r="G212" s="7" t="s">
@@ -10364,10 +10338,10 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C213" s="8" t="s">
         <v>21</v>
@@ -10387,10 +10361,10 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>21</v>
@@ -10399,9 +10373,9 @@
         <v>21</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F214" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F214" s="13" t="s">
         <v>1203</v>
       </c>
       <c r="G214" s="7" t="s">
@@ -10410,10 +10384,10 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>21</v>
@@ -10422,9 +10396,9 @@
         <v>21</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F215" s="12" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F215" s="13" t="s">
         <v>1204</v>
       </c>
       <c r="G215" s="7" t="s">
@@ -10436,16 +10410,16 @@
         <v>21346</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>21</v>
@@ -10456,21 +10430,21 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F217" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F217" s="13" t="s">
         <v>1205</v>
       </c>
       <c r="G217" s="7" t="s">
@@ -10479,10 +10453,10 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>21</v>
@@ -10491,9 +10465,9 @@
         <v>21</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F218" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F218" s="13" t="s">
         <v>1206</v>
       </c>
       <c r="G218" s="7" t="s">
@@ -10502,21 +10476,21 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="C219" s="10" t="s">
-        <v>651</v>
+        <v>393</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>656</v>
       </c>
       <c r="D219" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F219" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F219" s="13" t="s">
         <v>1207</v>
       </c>
       <c r="G219" s="7" t="s">
@@ -10525,10 +10499,10 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>21</v>
@@ -10537,7 +10511,7 @@
         <v>21</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="F220" s="6" t="s">
         <v>21</v>
@@ -10548,10 +10522,10 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>21</v>
@@ -10560,9 +10534,9 @@
         <v>21</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>1017</v>
-      </c>
-      <c r="F221" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F221" s="13" t="s">
         <v>1208</v>
       </c>
       <c r="G221" s="7" t="s">
@@ -10574,18 +10548,18 @@
         <v>1853521</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>652</v>
+        <v>396</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>657</v>
       </c>
       <c r="D222" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F222" s="12" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F222" s="13" t="s">
         <v>1209</v>
       </c>
       <c r="G222" s="7" t="s">
@@ -10594,21 +10568,21 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F223" s="12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F223" s="13" t="s">
         <v>1210</v>
       </c>
       <c r="G223" s="7" t="s">
@@ -10617,10 +10591,10 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>21</v>
@@ -10631,7 +10605,7 @@
       <c r="E224" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F224" s="12" t="s">
+      <c r="F224" s="13" t="s">
         <v>1211</v>
       </c>
       <c r="G224" s="7" t="s">
@@ -10643,18 +10617,18 @@
         <v>1479172</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C225" s="10" t="s">
-        <v>654</v>
+        <v>399</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>659</v>
       </c>
       <c r="D225" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>1020</v>
-      </c>
-      <c r="F225" s="12" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F225" s="13" t="s">
         <v>1212</v>
       </c>
       <c r="G225" s="7" t="s">
@@ -10666,18 +10640,18 @@
         <v>1479189</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C226" s="10" t="s">
-        <v>655</v>
+        <v>400</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>660</v>
       </c>
       <c r="D226" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F226" s="12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F226" s="13" t="s">
         <v>1213</v>
       </c>
       <c r="G226" s="7" t="s">
@@ -10686,10 +10660,10 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>21</v>
@@ -10698,9 +10672,9 @@
         <v>21</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F227" s="12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F227" s="13" t="s">
         <v>1214</v>
       </c>
       <c r="G227" s="7" t="s">
@@ -10712,18 +10686,18 @@
         <v>1846066</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>656</v>
+        <v>402</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>661</v>
       </c>
       <c r="D228" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E228" s="6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F228" s="12" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F228" s="13" t="s">
         <v>1215</v>
       </c>
       <c r="G228" s="7" t="s">
@@ -10732,10 +10706,10 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>21</v>
@@ -10744,7 +10718,7 @@
         <v>21</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="F229" s="6" t="s">
         <v>21</v>
@@ -10758,16 +10732,16 @@
         <v>1840699</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="E230" s="6" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>21</v>
@@ -10778,19 +10752,19 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C231" s="10" t="s">
-        <v>658</v>
+        <v>405</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>663</v>
       </c>
       <c r="D231" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="F231" s="6" t="s">
         <v>21</v>
@@ -10804,18 +10778,18 @@
         <v>1846042</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>659</v>
+        <v>406</v>
+      </c>
+      <c r="C232" s="11" t="s">
+        <v>664</v>
       </c>
       <c r="D232" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E232" s="6" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F232" s="12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F232" s="13" t="s">
         <v>1216</v>
       </c>
       <c r="G232" s="7" t="s">
@@ -10827,18 +10801,18 @@
         <v>1694681</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="E233" s="6" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F233" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F233" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G233" s="7" t="s">
@@ -10847,10 +10821,10 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>21</v>
@@ -10861,7 +10835,7 @@
       <c r="E234" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F234" s="13" t="s">
+      <c r="F234" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G234" s="7" t="s">
@@ -10873,18 +10847,18 @@
         <v>1138222</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>661</v>
+        <v>409</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>666</v>
       </c>
       <c r="D235" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E235" s="6" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F235" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F235" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G235" s="7" t="s">
@@ -10893,21 +10867,21 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>662</v>
+        <v>410</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>667</v>
       </c>
       <c r="D236" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F236" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F236" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G236" s="7" t="s">
@@ -10919,18 +10893,18 @@
         <v>1823609</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>663</v>
+        <v>411</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>668</v>
       </c>
       <c r="D237" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F237" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F237" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G237" s="7" t="s">
@@ -10939,10 +10913,10 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C238" s="8" t="s">
         <v>21</v>
@@ -10951,9 +10925,9 @@
         <v>21</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F238" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F238" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G238" s="7" t="s">
@@ -10962,10 +10936,10 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C239" s="8" t="s">
         <v>21</v>
@@ -10974,9 +10948,9 @@
         <v>21</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F239" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F239" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G239" s="7" t="s">
@@ -10988,18 +10962,18 @@
         <v>1092807</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>664</v>
+        <v>414</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>669</v>
       </c>
       <c r="D240" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E240" s="6" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F240" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F240" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G240" s="7" t="s">
@@ -11011,18 +10985,18 @@
         <v>1846080</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>665</v>
+        <v>415</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>670</v>
       </c>
       <c r="D241" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F241" s="13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F241" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G241" s="7" t="s">
@@ -11034,18 +11008,18 @@
         <v>20140</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>666</v>
+        <v>416</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>671</v>
       </c>
       <c r="D242" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E242" s="6" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F242" s="13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F242" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G242" s="7" t="s">
@@ -11057,18 +11031,18 @@
         <v>1517171</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>667</v>
+        <v>417</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>672</v>
       </c>
       <c r="D243" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E243" s="6" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F243" s="13" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F243" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G243" s="7" t="s">
@@ -11077,21 +11051,21 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>668</v>
+        <v>418</v>
+      </c>
+      <c r="C244" s="11" t="s">
+        <v>673</v>
       </c>
       <c r="D244" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E244" s="6" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F244" s="13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F244" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G244" s="7" t="s">
@@ -11100,10 +11074,10 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C245" s="8" t="s">
         <v>21</v>
@@ -11112,9 +11086,9 @@
         <v>21</v>
       </c>
       <c r="E245" s="6" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F245" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F245" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G245" s="7" t="s">
@@ -11123,21 +11097,21 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>669</v>
+        <v>420</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>674</v>
       </c>
       <c r="D246" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E246" s="6" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F246" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F246" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G246" s="7" t="s">
@@ -11146,10 +11120,10 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>21</v>
@@ -11160,7 +11134,7 @@
       <c r="E247" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F247" s="13" t="s">
+      <c r="F247" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G247" s="7" t="s">
@@ -11169,10 +11143,10 @@
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C248" s="8" t="s">
         <v>21</v>
@@ -11181,9 +11155,9 @@
         <v>21</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F248" s="13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F248" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G248" s="7" t="s">
@@ -11192,10 +11166,10 @@
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>21</v>
@@ -11204,9 +11178,9 @@
         <v>21</v>
       </c>
       <c r="E249" s="6" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F249" s="13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F249" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G249" s="7" t="s">
@@ -11215,21 +11189,21 @@
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="E250" s="6" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F250" s="13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F250" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G250" s="7" t="s">
@@ -11241,18 +11215,18 @@
         <v>1792356</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>671</v>
+        <v>425</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>676</v>
       </c>
       <c r="D251" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E251" s="6" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F251" s="13" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F251" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G251" s="7" t="s">
@@ -11264,18 +11238,18 @@
         <v>1853651</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>672</v>
+        <v>426</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>677</v>
       </c>
       <c r="D252" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E252" s="6" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F252" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F252" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G252" s="7" t="s">
@@ -11284,21 +11258,21 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C253" s="10" t="s">
-        <v>673</v>
+        <v>427</v>
+      </c>
+      <c r="C253" s="11" t="s">
+        <v>678</v>
       </c>
       <c r="D253" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F253" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F253" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G253" s="7" t="s">
@@ -11310,18 +11284,18 @@
         <v>1854535</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C254" s="10" t="s">
-        <v>674</v>
+        <v>428</v>
+      </c>
+      <c r="C254" s="11" t="s">
+        <v>679</v>
       </c>
       <c r="D254" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E254" s="6" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F254" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F254" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G254" s="7" t="s">
@@ -11333,18 +11307,18 @@
         <v>1823593</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C255" s="10" t="s">
-        <v>675</v>
+        <v>429</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>680</v>
       </c>
       <c r="D255" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E255" s="6" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F255" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F255" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G255" s="7" t="s">
@@ -11353,10 +11327,10 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C256" s="8" t="s">
         <v>21</v>
@@ -11365,9 +11339,9 @@
         <v>21</v>
       </c>
       <c r="E256" s="6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F256" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F256" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G256" s="7" t="s">
@@ -11376,21 +11350,21 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="C257" s="10" t="s">
-        <v>676</v>
+        <v>431</v>
+      </c>
+      <c r="C257" s="11" t="s">
+        <v>681</v>
       </c>
       <c r="D257" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E257" s="6" t="s">
-        <v>1050</v>
-      </c>
-      <c r="F257" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F257" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G257" s="7" t="s">
@@ -11399,10 +11373,10 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C258" s="8" t="s">
         <v>21</v>
@@ -11413,7 +11387,7 @@
       <c r="E258" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F258" s="13" t="s">
+      <c r="F258" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G258" s="7" t="s">
@@ -11422,21 +11396,21 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="C259" s="10" t="s">
-        <v>677</v>
+        <v>433</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>682</v>
       </c>
       <c r="D259" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F259" s="13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F259" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G259" s="7" t="s">
@@ -11445,21 +11419,21 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C260" s="10" t="s">
-        <v>678</v>
+        <v>434</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>683</v>
       </c>
       <c r="D260" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F260" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F260" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G260" s="7" t="s">
@@ -11468,21 +11442,21 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C261" s="10" t="s">
-        <v>679</v>
+        <v>435</v>
+      </c>
+      <c r="C261" s="11" t="s">
+        <v>684</v>
       </c>
       <c r="D261" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F261" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F261" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G261" s="7" t="s">
@@ -11491,21 +11465,21 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="C262" s="10" t="s">
-        <v>680</v>
+        <v>436</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>685</v>
       </c>
       <c r="D262" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E262" s="6" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F262" s="13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F262" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G262" s="7" t="s">
@@ -11514,10 +11488,10 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>21</v>
@@ -11528,7 +11502,7 @@
       <c r="E263" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F263" s="13" t="s">
+      <c r="F263" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G263" s="7" t="s">
@@ -11537,21 +11511,21 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="C264" s="10" t="s">
-        <v>681</v>
+        <v>438</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>686</v>
       </c>
       <c r="D264" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E264" s="6" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F264" s="13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F264" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G264" s="7" t="s">
@@ -11560,10 +11534,10 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C265" s="8" t="s">
         <v>21</v>
@@ -11574,7 +11548,7 @@
       <c r="E265" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F265" s="13" t="s">
+      <c r="F265" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G265" s="7" t="s">
@@ -11586,18 +11560,18 @@
         <v>1312097</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C266" s="10" t="s">
-        <v>682</v>
+        <v>440</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>687</v>
       </c>
       <c r="D266" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F266" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F266" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G266" s="7" t="s">
@@ -11609,18 +11583,18 @@
         <v>1680172</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F267" s="13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F267" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G267" s="7" t="s">
@@ -11629,10 +11603,10 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C268" s="8" t="s">
         <v>21</v>
@@ -11643,7 +11617,7 @@
       <c r="E268" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F268" s="13" t="s">
+      <c r="F268" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G268" s="7" t="s">
@@ -11652,10 +11626,10 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C269" s="8" t="s">
         <v>21</v>
@@ -11664,9 +11638,9 @@
         <v>21</v>
       </c>
       <c r="E269" s="6" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F269" s="13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F269" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G269" s="7" t="s">
@@ -11678,18 +11652,18 @@
         <v>1336987</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C270" s="10" t="s">
-        <v>684</v>
+        <v>444</v>
+      </c>
+      <c r="C270" s="11" t="s">
+        <v>689</v>
       </c>
       <c r="D270" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>1059</v>
-      </c>
-      <c r="F270" s="13" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F270" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G270" s="7" t="s">
@@ -11698,21 +11672,21 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C271" s="10" t="s">
-        <v>685</v>
+        <v>445</v>
+      </c>
+      <c r="C271" s="11" t="s">
+        <v>690</v>
       </c>
       <c r="D271" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E271" s="6" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F271" s="13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F271" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G271" s="7" t="s">
@@ -11721,21 +11695,21 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="C272" s="10" t="s">
-        <v>686</v>
+        <v>446</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>691</v>
       </c>
       <c r="D272" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E272" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F272" s="13" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F272" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G272" s="7" t="s">
@@ -11744,10 +11718,10 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C273" s="8" t="s">
         <v>21</v>
@@ -11758,7 +11732,7 @@
       <c r="E273" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F273" s="13" t="s">
+      <c r="F273" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G273" s="7" t="s">
@@ -11770,18 +11744,18 @@
         <v>1103848</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C274" s="10" t="s">
-        <v>687</v>
+        <v>448</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>692</v>
       </c>
       <c r="D274" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F274" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F274" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G274" s="7" t="s">
@@ -11793,18 +11767,18 @@
         <v>4784</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="E275" s="6" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F275" s="13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F275" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G275" s="7" t="s">
@@ -11813,10 +11787,10 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C276" s="8" t="s">
         <v>21</v>
@@ -11825,9 +11799,9 @@
         <v>21</v>
       </c>
       <c r="E276" s="6" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F276" s="13" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F276" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G276" s="7" t="s">
@@ -11836,10 +11810,10 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C277" s="8" t="s">
         <v>21</v>
@@ -11848,9 +11822,9 @@
         <v>21</v>
       </c>
       <c r="E277" s="6" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F277" s="13" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F277" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G277" s="7" t="s">
@@ -11859,21 +11833,21 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="C278" s="10" t="s">
-        <v>688</v>
+        <v>452</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>693</v>
       </c>
       <c r="D278" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E278" s="6" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F278" s="13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F278" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G278" s="7" t="s">
@@ -11882,10 +11856,10 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C279" s="8" t="s">
         <v>21</v>
@@ -11894,9 +11868,9 @@
         <v>21</v>
       </c>
       <c r="E279" s="6" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F279" s="13" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F279" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G279" s="7" t="s">
@@ -11905,10 +11879,10 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>21</v>
@@ -11917,9 +11891,9 @@
         <v>21</v>
       </c>
       <c r="E280" s="6" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F280" s="13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F280" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G280" s="7" t="s">
@@ -11928,10 +11902,10 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C281" s="8" t="s">
         <v>21</v>
@@ -11940,9 +11914,9 @@
         <v>21</v>
       </c>
       <c r="E281" s="6" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F281" s="13" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F281" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G281" s="7" t="s">
@@ -11951,10 +11925,10 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C282" s="8" t="s">
         <v>21</v>
@@ -11963,9 +11937,9 @@
         <v>21</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F282" s="13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F282" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G282" s="7" t="s">
@@ -11974,10 +11948,10 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C283" s="8" t="s">
         <v>21</v>
@@ -11986,9 +11960,9 @@
         <v>21</v>
       </c>
       <c r="E283" s="6" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F283" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F283" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G283" s="7" t="s">
@@ -11997,10 +11971,10 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C284" s="8" t="s">
         <v>21</v>
@@ -12009,9 +11983,9 @@
         <v>21</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F284" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F284" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G284" s="7" t="s">
@@ -12020,10 +11994,10 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C285" s="8" t="s">
         <v>21</v>
@@ -12032,9 +12006,9 @@
         <v>21</v>
       </c>
       <c r="E285" s="6" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F285" s="13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F285" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G285" s="7" t="s">
@@ -12043,10 +12017,10 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C286" s="8" t="s">
         <v>21</v>
@@ -12055,9 +12029,9 @@
         <v>21</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F286" s="13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F286" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G286" s="7" t="s">
@@ -12066,10 +12040,10 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C287" s="8" t="s">
         <v>21</v>
@@ -12078,9 +12052,9 @@
         <v>21</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F287" s="13" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F287" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G287" s="7" t="s">
@@ -12089,10 +12063,10 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C288" s="8" t="s">
         <v>21</v>
@@ -12101,9 +12075,9 @@
         <v>21</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F288" s="13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F288" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G288" s="7" t="s">
@@ -12115,7 +12089,7 @@
         <v>2809095</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C289" s="8" t="s">
         <v>21</v>
@@ -12126,7 +12100,7 @@
       <c r="E289" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F289" s="13" t="s">
+      <c r="F289" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G289" s="6" t="s">
@@ -12135,10 +12109,10 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C290" s="8" t="s">
         <v>21</v>
@@ -12149,7 +12123,7 @@
       <c r="E290" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F290" s="13" t="s">
+      <c r="F290" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G290" s="6" t="s">
@@ -12158,21 +12132,21 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="C291" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D291" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="E291" s="11" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F291" s="13" t="s">
+      <c r="D291" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="E291" s="12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F291" s="14" t="s">
         <v>21</v>
       </c>
       <c r="G291" s="6" t="s">
@@ -12812,198 +12786,195 @@
     <hyperlink ref="E291" r:id="rId629" xr:uid="{25CEEB42-6B94-4D4A-A1BE-A8439287279F}"/>
     <hyperlink ref="F2" r:id="rId630" xr:uid="{A6589416-03BB-4787-BE3C-0B5266B2451A}"/>
     <hyperlink ref="F3" r:id="rId631" xr:uid="{F5A08862-5A90-4EED-B2A0-D5E06F469B45}"/>
-    <hyperlink ref="F4" r:id="rId632" xr:uid="{363A3A75-20F4-487E-992E-8664675E185D}"/>
-    <hyperlink ref="F5" r:id="rId633" xr:uid="{F9B302E6-B894-47A0-BAC9-61A2CADB2494}"/>
-    <hyperlink ref="F6" r:id="rId634" xr:uid="{2CEF7D4F-A521-4D33-88F8-95930731C1A9}"/>
-    <hyperlink ref="F7" r:id="rId635" xr:uid="{CD0A998A-C918-457A-B1C3-51C1C188D98D}"/>
-    <hyperlink ref="F8" r:id="rId636" xr:uid="{50E24380-FD54-4651-A261-58F153B4CE0E}"/>
-    <hyperlink ref="F9" r:id="rId637" xr:uid="{7DFC4488-1630-4F51-A901-0F7285CA2CDC}"/>
-    <hyperlink ref="F10" r:id="rId638" xr:uid="{D2F028E4-2308-4C55-9BBA-7A9823FDA7C4}"/>
-    <hyperlink ref="F11" r:id="rId639" xr:uid="{7F8DA16D-2E6D-4DC9-82EB-923D0B756653}"/>
-    <hyperlink ref="F12" r:id="rId640" xr:uid="{1BB007D2-9B1D-4861-A0A0-D578C908942C}"/>
-    <hyperlink ref="F13" r:id="rId641" xr:uid="{084BFA5D-3BA8-43A6-9EE1-40BF3B58F729}"/>
-    <hyperlink ref="F14" r:id="rId642" xr:uid="{31F1AD34-9BAF-4DC0-9823-0D16324080E0}"/>
-    <hyperlink ref="F15" r:id="rId643" xr:uid="{FC773698-4EF8-41A7-BF62-810D693798A8}"/>
-    <hyperlink ref="F16" r:id="rId644" xr:uid="{4B0BBD60-306F-4E93-B164-0CDD9EE2EA74}"/>
-    <hyperlink ref="F17" r:id="rId645" xr:uid="{62EF3782-F1D2-47E4-9DFB-AB5A186923BB}"/>
-    <hyperlink ref="F18" r:id="rId646" xr:uid="{B338A363-69CA-4869-BD97-FF9359BFDB40}"/>
-    <hyperlink ref="F19" r:id="rId647" xr:uid="{2EF956F5-4A2D-46C7-B0A9-352BA9412883}"/>
-    <hyperlink ref="F20" r:id="rId648" xr:uid="{BE49C8A6-C999-4ABA-AFDB-1A6CB8CDD67D}"/>
-    <hyperlink ref="F21" r:id="rId649" xr:uid="{83248069-1CF7-4C80-8FF9-BFBDF0987692}"/>
-    <hyperlink ref="F22" r:id="rId650" xr:uid="{40991D0B-72FD-45C8-99DB-D5CEF3F0A575}"/>
-    <hyperlink ref="F23" r:id="rId651" xr:uid="{2DF8F052-5940-4E65-81A7-39AA99312832}"/>
-    <hyperlink ref="F24" r:id="rId652" xr:uid="{1D87945F-9B24-4CB7-878E-C95DF70888DA}"/>
-    <hyperlink ref="F25" r:id="rId653" xr:uid="{CBB23D57-6A49-46ED-A012-2849E4F22D5C}"/>
-    <hyperlink ref="F26" r:id="rId654" xr:uid="{DF4E2EB6-B820-43E4-BEB3-4C7A7EF1F1A1}"/>
-    <hyperlink ref="F27" r:id="rId655" xr:uid="{4F3B2D2F-6F4E-4BF5-A6DB-F38F83DD7ADC}"/>
-    <hyperlink ref="F29" r:id="rId656" xr:uid="{5493C98A-616D-4511-87F5-4B78192A1BFD}"/>
-    <hyperlink ref="F30" r:id="rId657" xr:uid="{7F3C3F24-3842-4B5D-856A-FE13BC56F8D1}"/>
-    <hyperlink ref="F31" r:id="rId658" xr:uid="{5E7ACFBD-104F-4277-98CD-907D6A00424D}"/>
-    <hyperlink ref="F33" r:id="rId659" xr:uid="{90A1F627-9BE3-40B1-B00D-0B424DB0F9EA}"/>
-    <hyperlink ref="F35" r:id="rId660" xr:uid="{D3631AAE-EA98-4A6B-99E9-20885142D387}"/>
-    <hyperlink ref="F36" r:id="rId661" xr:uid="{4852E053-B520-4821-871E-C995F0D2C6EE}"/>
-    <hyperlink ref="F37" r:id="rId662" xr:uid="{E6FD604B-F4FB-4AE8-B41B-B78F187F41AD}"/>
-    <hyperlink ref="F38" r:id="rId663" xr:uid="{D616D140-EE84-4309-BBF1-94DCF7550824}"/>
-    <hyperlink ref="F39" r:id="rId664" xr:uid="{32DAED1F-A442-4EBB-9DA9-CCA3572BBC24}"/>
-    <hyperlink ref="F40" r:id="rId665" xr:uid="{0B8CA557-A9AA-433F-9AFB-C27E67F70585}"/>
-    <hyperlink ref="F44" r:id="rId666" xr:uid="{CEB0447E-F1C5-451E-99D0-3930B290E97E}"/>
-    <hyperlink ref="F45" r:id="rId667" xr:uid="{BDA78281-6E3D-4738-B7F7-5E3C6BEEDAD2}"/>
-    <hyperlink ref="F46" r:id="rId668" xr:uid="{E0717D49-7780-49CD-BA1A-DDE74F540B06}"/>
-    <hyperlink ref="F48" r:id="rId669" xr:uid="{21515846-ADAB-4DF3-9FE3-76820AC4657C}"/>
-    <hyperlink ref="F50" r:id="rId670" xr:uid="{FB258C56-8808-4326-AD3A-DFB8DCF47003}"/>
-    <hyperlink ref="F51" r:id="rId671" xr:uid="{7095461B-3E66-46B5-A4CF-C8F332FF6EA0}"/>
-    <hyperlink ref="F52" r:id="rId672" xr:uid="{68527004-997B-46B1-906B-722D4DE12A7E}"/>
-    <hyperlink ref="F53" r:id="rId673" xr:uid="{6B51DBB2-0F28-4A45-A062-D282864F4524}"/>
-    <hyperlink ref="F56" r:id="rId674" xr:uid="{1CF705B8-D67C-49B8-95B9-608692FA527C}"/>
-    <hyperlink ref="F57" r:id="rId675" xr:uid="{D2F8BF04-664C-4ECD-AD18-69FF1DA0D5CD}"/>
-    <hyperlink ref="F58" r:id="rId676" xr:uid="{9F98891D-E85B-40C4-BCF0-26D7733895D9}"/>
-    <hyperlink ref="F59" r:id="rId677" xr:uid="{FA8B1B34-D297-4A9F-9A68-3A8B24666114}"/>
-    <hyperlink ref="F60" r:id="rId678" xr:uid="{D06DCA9C-B34E-4C6A-923A-08D1EA522145}"/>
-    <hyperlink ref="F61" r:id="rId679" xr:uid="{D5928D3C-2642-45E7-8B3C-5E8A76E4B2FE}"/>
-    <hyperlink ref="F62" r:id="rId680" xr:uid="{6F366CAB-425D-4323-9EE4-4DC3581B6D7B}"/>
-    <hyperlink ref="F65" r:id="rId681" xr:uid="{99A90087-6D80-4552-9308-F7B03A0CBF0A}"/>
-    <hyperlink ref="F66" r:id="rId682" xr:uid="{F41DBDE1-EC45-4F65-98C1-E28A360053AD}"/>
-    <hyperlink ref="F67" r:id="rId683" xr:uid="{0BA0F4B7-25E4-4F79-8A1D-611C14072230}"/>
-    <hyperlink ref="F68" r:id="rId684" xr:uid="{8DEA756B-E841-41F9-9BC1-CED3525D4A5B}"/>
-    <hyperlink ref="F69" r:id="rId685" xr:uid="{534B7BB8-CEBF-46EE-B50B-2BB231B66119}"/>
-    <hyperlink ref="F70" r:id="rId686" xr:uid="{3619EC87-F4A6-4352-AED0-021085970221}"/>
-    <hyperlink ref="F71" r:id="rId687" xr:uid="{EE79BB00-8853-438A-92DF-2A5BC905EA11}"/>
-    <hyperlink ref="F72" r:id="rId688" xr:uid="{FE877C04-463D-4E64-A232-BDA4A19D46A0}"/>
-    <hyperlink ref="F73" r:id="rId689" xr:uid="{96FD594C-7602-429A-A888-A577B594148B}"/>
-    <hyperlink ref="F74" r:id="rId690" xr:uid="{AA5C3290-9F1C-4142-841E-0A551D5E5F2F}"/>
-    <hyperlink ref="F76" r:id="rId691" xr:uid="{4011FE09-0A2A-4B42-9CE1-CBFB0B4B76E8}"/>
-    <hyperlink ref="F77" r:id="rId692" xr:uid="{C3E668B7-16E0-46B8-A7CA-349B6403A054}"/>
-    <hyperlink ref="F78" r:id="rId693" xr:uid="{5B5A7DE9-4060-4AF8-9816-E16B0C70CEF4}"/>
-    <hyperlink ref="F79" r:id="rId694" xr:uid="{61342221-23CE-4C3F-8809-3B66EDF9BC08}"/>
-    <hyperlink ref="F81" r:id="rId695" xr:uid="{1C0E724A-4626-429D-B093-D4AB3E489661}"/>
-    <hyperlink ref="F82" r:id="rId696" xr:uid="{34BA50D2-4B46-4EEB-8000-1BD05CCF3448}"/>
-    <hyperlink ref="F83" r:id="rId697" xr:uid="{E8C9D81B-C249-4DC6-AE46-2C1C37B15B33}"/>
-    <hyperlink ref="F87" r:id="rId698" xr:uid="{B4148C27-715C-4166-87B4-95F99102C561}"/>
-    <hyperlink ref="F91" r:id="rId699" xr:uid="{8748DC97-611D-4A3C-BA8E-FFF5821C4865}"/>
-    <hyperlink ref="F92" r:id="rId700" xr:uid="{151D989A-BA3F-451B-B020-786EBEA16927}"/>
-    <hyperlink ref="F96" r:id="rId701" xr:uid="{1E4AE983-CFF3-4AB4-895C-8787A8717A82}"/>
-    <hyperlink ref="F101" r:id="rId702" xr:uid="{2DB03D20-F4F0-4BD0-8E65-FB0DA9F0EEB0}"/>
-    <hyperlink ref="F104" r:id="rId703" xr:uid="{199FAC66-1D34-49A3-9D4A-89BECF22E725}"/>
-    <hyperlink ref="F108" r:id="rId704" xr:uid="{1811BCA8-570C-4F04-84CC-74F1E321F0AF}"/>
-    <hyperlink ref="F111" r:id="rId705" xr:uid="{3814CE5F-3289-4F3F-A34E-3314A751A39F}"/>
-    <hyperlink ref="F113" r:id="rId706" xr:uid="{17EB7273-4CA1-45E3-B71C-656EFECCF651}"/>
-    <hyperlink ref="F114" r:id="rId707" xr:uid="{57B79406-EF33-4FFA-A8B2-59F2C1D1020C}"/>
-    <hyperlink ref="F116" r:id="rId708" xr:uid="{7CBFE354-95D9-48C6-9AEA-1E37EA7B2641}"/>
-    <hyperlink ref="F117" r:id="rId709" xr:uid="{FDBD5AD7-3A8B-482F-A2D7-DBD9299E20C1}"/>
-    <hyperlink ref="F120" r:id="rId710" xr:uid="{18F1DFE5-6B80-4EB1-8832-C8FBCFCC2890}"/>
-    <hyperlink ref="F124" r:id="rId711" xr:uid="{2C13B0B9-A53B-4F8F-99D6-8DDD20C0D7C3}"/>
-    <hyperlink ref="F125" r:id="rId712" xr:uid="{503D6164-B205-48DC-BEA2-C589929623E9}"/>
-    <hyperlink ref="F126" r:id="rId713" xr:uid="{15A611ED-60B7-4A0B-9C89-E130EC03D63F}"/>
-    <hyperlink ref="F127" r:id="rId714" xr:uid="{80CA3596-5D5A-412C-BC83-A00276044999}"/>
-    <hyperlink ref="F128" r:id="rId715" xr:uid="{F8B162BB-9F2A-4035-B5AF-0C85CC94D405}"/>
-    <hyperlink ref="F130" r:id="rId716" xr:uid="{72EB68A7-C157-45CA-B6DC-F1FC81910576}"/>
-    <hyperlink ref="F134" r:id="rId717" xr:uid="{FCCF8EA4-83E6-44B2-9976-3C7CD2BD322F}"/>
-    <hyperlink ref="F136" r:id="rId718" xr:uid="{B758ACCA-8FB5-41EF-8F8D-EFC73606B53C}"/>
-    <hyperlink ref="F137" r:id="rId719" xr:uid="{04CF4BAD-6914-4709-86FB-1EE3C15BFF32}"/>
-    <hyperlink ref="F138" r:id="rId720" xr:uid="{69C6937E-8B99-4B90-BAF3-46B2B6DFC963}"/>
-    <hyperlink ref="F139" r:id="rId721" xr:uid="{0DF96EC6-FE01-4EC7-B749-49BB7ED7D0D2}"/>
-    <hyperlink ref="F140" r:id="rId722" xr:uid="{B3027E0F-0FC3-42FA-8FF7-FB5C921F8196}"/>
-    <hyperlink ref="F141" r:id="rId723" xr:uid="{248F4C65-983F-4ADC-89D2-FFB0820107FD}"/>
-    <hyperlink ref="F144" r:id="rId724" xr:uid="{5610CE9F-63A2-4213-9509-01F2679CF00B}"/>
-    <hyperlink ref="F145" r:id="rId725" xr:uid="{CC4664DC-C7D3-470E-B42E-518F38E4C4E9}"/>
-    <hyperlink ref="F146" r:id="rId726" xr:uid="{A3B74093-B513-4785-AEC0-8BDB3307F80F}"/>
-    <hyperlink ref="F147" r:id="rId727" xr:uid="{F600C25F-4A01-49A9-86EC-D8205269DF1B}"/>
-    <hyperlink ref="F148" r:id="rId728" xr:uid="{55F007EF-4712-4466-8743-664415795A0F}"/>
-    <hyperlink ref="F150" r:id="rId729" xr:uid="{CBA808BD-0EAB-4B67-B663-915FCD80704A}"/>
-    <hyperlink ref="F161" r:id="rId730" xr:uid="{29D66841-F3E7-4968-B932-7B4CFBE509D1}"/>
-    <hyperlink ref="F163" r:id="rId731" xr:uid="{B949EAF4-C2EA-457E-955F-7BB00D9576C0}"/>
-    <hyperlink ref="F165" r:id="rId732" xr:uid="{F5B1D639-B8DD-476A-B502-AE3FBFE0031F}"/>
-    <hyperlink ref="F170" r:id="rId733" xr:uid="{38331FD0-8CE8-4481-9F8D-FB8F2969A77C}"/>
-    <hyperlink ref="F171" r:id="rId734" xr:uid="{D2AC8D92-C324-4F46-954A-470623AD66D5}"/>
-    <hyperlink ref="F173" r:id="rId735" xr:uid="{6C033CF8-D40C-4063-B68F-2C9819DE81D3}"/>
-    <hyperlink ref="F180" r:id="rId736" xr:uid="{C7783EFA-64C3-4CC2-8B64-A17362850F12}"/>
-    <hyperlink ref="F181" r:id="rId737" xr:uid="{7D214A62-3AE7-4C22-9DA4-FB5A85C1584C}"/>
-    <hyperlink ref="F187" r:id="rId738" xr:uid="{11399C46-3EA5-4F42-B9F9-9658519B1414}"/>
-    <hyperlink ref="F188" r:id="rId739" xr:uid="{E8975341-8818-41CC-AAFE-F77A5FBEDEBE}"/>
-    <hyperlink ref="F189" r:id="rId740" xr:uid="{2194B9F2-9DB0-43F4-B073-582233652412}"/>
-    <hyperlink ref="F197" r:id="rId741" xr:uid="{85E76C52-5462-4324-8576-F688BF7B8DB3}"/>
-    <hyperlink ref="F200" r:id="rId742" xr:uid="{DCF03A67-B764-451C-A91C-03BFEF3CFAA2}"/>
-    <hyperlink ref="F201" r:id="rId743" xr:uid="{A03DFCBA-2C81-481E-B820-A236FF97E633}"/>
-    <hyperlink ref="F202" r:id="rId744" xr:uid="{14A02A12-6BD7-4232-B8EB-91DE1663BC39}"/>
-    <hyperlink ref="F203" r:id="rId745" xr:uid="{DA7BB29D-70C0-4DAC-8600-28781D8BCED5}"/>
-    <hyperlink ref="F204" r:id="rId746" xr:uid="{1004F36C-4825-4CA6-97F2-1F5E300591C7}"/>
-    <hyperlink ref="F205" r:id="rId747" xr:uid="{6BE1F4E8-0572-4FB7-9ED8-7CCFB5CAAD52}"/>
-    <hyperlink ref="F206" r:id="rId748" xr:uid="{0231A43C-AE9A-47CD-9139-2CB23E46302F}"/>
-    <hyperlink ref="F207" r:id="rId749" xr:uid="{DA4CEE8E-F639-4EEA-BC26-7C375297B1A5}"/>
-    <hyperlink ref="F208" r:id="rId750" xr:uid="{C2B2D7C2-8286-431B-8001-DB33188EB032}"/>
-    <hyperlink ref="F209" r:id="rId751" xr:uid="{8D5A01BF-B4BF-4804-855E-844B1AD5B9AF}"/>
-    <hyperlink ref="F210" r:id="rId752" xr:uid="{25EC7027-97B0-43C5-9426-E90EEE6B9E0B}"/>
-    <hyperlink ref="F211" r:id="rId753" xr:uid="{FDADCA2B-0592-4F59-B5AE-F66428A66960}"/>
-    <hyperlink ref="F212" r:id="rId754" xr:uid="{367879B8-885C-4D68-AA4B-A46EC52FFDA1}"/>
-    <hyperlink ref="F214" r:id="rId755" xr:uid="{582F44F6-09B2-4F3B-ADB2-AEDB95BC9DEA}"/>
-    <hyperlink ref="F215" r:id="rId756" xr:uid="{97CE1B05-EFA0-4BD5-AD61-E8BACDE594AD}"/>
-    <hyperlink ref="F217" r:id="rId757" xr:uid="{92C68C39-07EA-4D68-BD3A-5415AAAC3375}"/>
-    <hyperlink ref="F218" r:id="rId758" xr:uid="{9C55CB91-5EC4-49FE-ABCF-1DBFF847BF4B}"/>
-    <hyperlink ref="F219" r:id="rId759" xr:uid="{1EB2D3FC-01D6-4677-853E-06E36ADC8114}"/>
-    <hyperlink ref="F221" r:id="rId760" xr:uid="{5139C1C7-622F-4B2B-BE26-C8F39F0B9DEC}"/>
-    <hyperlink ref="F222" r:id="rId761" xr:uid="{E12F3243-F1EA-47AE-9807-8736B3F714C4}"/>
-    <hyperlink ref="F223" r:id="rId762" xr:uid="{53C4B67E-F6AA-4498-8B42-670679938674}"/>
-    <hyperlink ref="F224" r:id="rId763" xr:uid="{C7ED010B-B6A9-4933-A50D-4A16DFB6D97B}"/>
-    <hyperlink ref="F225" r:id="rId764" xr:uid="{7EC3F8C1-4984-4F6E-B6E9-7B4950CEA6F5}"/>
-    <hyperlink ref="F226" r:id="rId765" xr:uid="{AACFE5D1-5CB8-4DB3-8096-696C9A771707}"/>
-    <hyperlink ref="F227" r:id="rId766" xr:uid="{E828EE64-6B6A-4CB1-90F1-3BC192EA5D5F}"/>
-    <hyperlink ref="F228" r:id="rId767" xr:uid="{AA917574-718C-433F-A137-A6111168EE1F}"/>
-    <hyperlink ref="F232" r:id="rId768" xr:uid="{F13106EF-B902-4F73-876D-FE39E810DA2D}"/>
-    <hyperlink ref="G2" r:id="rId769" xr:uid="{67298737-797C-4EA5-80E0-24A897D6AE4F}"/>
-    <hyperlink ref="G3" r:id="rId770" xr:uid="{B51786F5-05BE-4BEC-81FD-EE0AC138D32E}"/>
-    <hyperlink ref="G4" r:id="rId771" xr:uid="{E435E6AA-8ECD-405F-82D6-109B8662F0BA}"/>
-    <hyperlink ref="G9" r:id="rId772" xr:uid="{B919298B-0888-412E-91D1-4B1B114822D8}"/>
-    <hyperlink ref="G10" r:id="rId773" xr:uid="{BBE08254-E1B4-4861-BD7D-078D8AC9EFCD}"/>
-    <hyperlink ref="G14" r:id="rId774" xr:uid="{92896E4B-FA9D-4B2D-B07B-0F73435595CF}"/>
-    <hyperlink ref="G15" r:id="rId775" xr:uid="{89791CAF-5C51-4024-ACFE-3C1FC57D6399}"/>
-    <hyperlink ref="G20" r:id="rId776" xr:uid="{4FFAF9F0-C991-436E-B23D-DDF36453675D}"/>
-    <hyperlink ref="G21" r:id="rId777" xr:uid="{5E003DA0-15A4-4C4B-A672-3DBFF48B30DB}"/>
-    <hyperlink ref="G22" r:id="rId778" xr:uid="{EEEBBDCE-4F6C-4FD2-AAD7-053CDC99F939}"/>
-    <hyperlink ref="G23" r:id="rId779" xr:uid="{78074905-FA13-46F1-ADBD-60E5FD3F51A3}"/>
-    <hyperlink ref="G25" r:id="rId780" xr:uid="{B6F9F5D7-CC8D-4D80-9BD9-1F3B777DA141}"/>
-    <hyperlink ref="G26" r:id="rId781" xr:uid="{4CE8DE7C-20E8-455C-8442-76ECBDA71C14}"/>
-    <hyperlink ref="G29" r:id="rId782" xr:uid="{DEC4C3F5-547A-4BE5-AC4E-AAC3E316B47C}"/>
-    <hyperlink ref="G31" r:id="rId783" xr:uid="{AE289C55-AEA9-4BC7-8A97-93E9F844C89E}"/>
-    <hyperlink ref="G35" r:id="rId784" xr:uid="{E2EDE14B-F4CA-4949-A6C0-A9CCA1C0564B}"/>
-    <hyperlink ref="G36" r:id="rId785" xr:uid="{8B300756-5484-4616-84D1-3DE4FC9D4280}"/>
-    <hyperlink ref="G37" r:id="rId786" xr:uid="{D80D94C6-4579-4812-BD3F-DDF832B85765}"/>
-    <hyperlink ref="G38" r:id="rId787" xr:uid="{69D4C07D-0C3F-4608-B5C3-415DB5F412F2}"/>
-    <hyperlink ref="G43" r:id="rId788" xr:uid="{C1420233-DE6D-4436-9B90-95597D77E88B}"/>
-    <hyperlink ref="G45" r:id="rId789" xr:uid="{96EB5799-C1F7-48A8-A2C8-B6FEB9D58DF6}"/>
-    <hyperlink ref="G46" r:id="rId790" xr:uid="{D2ABC752-5E10-480B-8F73-4775CFDF056C}"/>
-    <hyperlink ref="G47" r:id="rId791" xr:uid="{DC28152C-7C35-417C-9008-321613CBF49C}"/>
-    <hyperlink ref="G48" r:id="rId792" xr:uid="{217E0475-67FA-4239-A696-F2E867C63469}"/>
-    <hyperlink ref="G50" r:id="rId793" xr:uid="{F4A0E0BA-ECA3-4F29-98CB-7A458018F3CD}"/>
-    <hyperlink ref="G60" r:id="rId794" xr:uid="{06CFB7A1-8B19-4346-B668-3A1A0EFA4E77}"/>
-    <hyperlink ref="G63" r:id="rId795" xr:uid="{ADC03EA2-50B3-4C1A-8138-7BEAD1647C02}"/>
-    <hyperlink ref="G76" r:id="rId796" xr:uid="{086AE656-EDCE-46C2-8048-76D41B8E870C}"/>
-    <hyperlink ref="G78" r:id="rId797" xr:uid="{B0844549-4EDB-4D4F-8914-DA9E7FF754A5}"/>
-    <hyperlink ref="G85" r:id="rId798" xr:uid="{F2BCCAAA-E019-4B52-86A1-6E7EFC481C5E}"/>
-    <hyperlink ref="G87" r:id="rId799" xr:uid="{2A7C8BDC-6D4A-4BD7-A524-D1BEE553C53B}"/>
-    <hyperlink ref="G93" r:id="rId800" xr:uid="{F1BA253C-AA03-4711-B06E-DF105B9DAFC0}"/>
-    <hyperlink ref="G99" r:id="rId801" xr:uid="{96B407D4-78EC-4317-B0FB-BB4DBC43782E}"/>
-    <hyperlink ref="G101" r:id="rId802" xr:uid="{E4BCE084-725C-4CBB-8B8C-F909274403D2}"/>
-    <hyperlink ref="G106" r:id="rId803" xr:uid="{63084308-2124-4339-BB50-B9A7B62DD9FA}"/>
-    <hyperlink ref="G116" r:id="rId804" xr:uid="{7F386B2B-F6D5-4260-8F39-CA66E4B25BCD}"/>
-    <hyperlink ref="G136" r:id="rId805" xr:uid="{15F3F54E-B878-49D5-BB68-B9BF9BB7CB4A}"/>
-    <hyperlink ref="G138" r:id="rId806" xr:uid="{4F256407-7F6C-4A3A-B743-6B0AA2195985}"/>
-    <hyperlink ref="G141" r:id="rId807" xr:uid="{80B3727E-9AF7-4021-992F-039FE2DB03EE}"/>
-    <hyperlink ref="G148" r:id="rId808" xr:uid="{1729B842-4E2D-4D30-B283-923DB317B1C7}"/>
-    <hyperlink ref="G150" r:id="rId809" xr:uid="{D3CACF43-F429-4183-9E37-A55B16286995}"/>
-    <hyperlink ref="G163" r:id="rId810" xr:uid="{331CA7EC-4476-4519-A9C6-E73B3E35BF17}"/>
-    <hyperlink ref="G165" r:id="rId811" xr:uid="{01E31CF9-381F-4BB8-B83F-05137DFFDB4A}"/>
-    <hyperlink ref="G170" r:id="rId812" xr:uid="{8B273239-91C3-4C52-91C8-4891B23890FA}"/>
-    <hyperlink ref="G173" r:id="rId813" xr:uid="{ACE5A301-D104-443E-B719-B8861F6B920E}"/>
-    <hyperlink ref="G178" r:id="rId814" xr:uid="{34B0316E-6396-458C-9193-19A3D94914F9}"/>
-    <hyperlink ref="G180" r:id="rId815" xr:uid="{147F5066-0C4A-48F9-B126-70A41C2D09A8}"/>
-    <hyperlink ref="G181" r:id="rId816" xr:uid="{69575E7B-84E5-4875-9346-8C4C83E94E57}"/>
-    <hyperlink ref="G191" r:id="rId817" xr:uid="{B03AFFFB-9222-47B8-9461-7C7F7C651DE9}"/>
-    <hyperlink ref="G192" r:id="rId818" xr:uid="{9FD1437A-188A-4749-ADE3-C1BAA2D87C43}"/>
-    <hyperlink ref="G193" r:id="rId819" xr:uid="{0C81C116-FA45-417A-A236-D69952F9DF8D}"/>
-    <hyperlink ref="G200" r:id="rId820" xr:uid="{5B1D43D2-0D30-480A-8041-A1C42EFF4D0C}"/>
-    <hyperlink ref="G202" r:id="rId821" xr:uid="{6CEE5BFC-D574-43F7-80DC-1D8F81DE5B1C}"/>
-    <hyperlink ref="G222" r:id="rId822" xr:uid="{D62570AD-C5A6-480A-8B7A-361349CA4DE5}"/>
-    <hyperlink ref="G237" r:id="rId823" xr:uid="{017ADEFA-74AE-433E-86EA-B6043762C580}"/>
+    <hyperlink ref="F7" r:id="rId632" xr:uid="{CD0A998A-C918-457A-B1C3-51C1C188D98D}"/>
+    <hyperlink ref="F8" r:id="rId633" xr:uid="{50E24380-FD54-4651-A261-58F153B4CE0E}"/>
+    <hyperlink ref="F9" r:id="rId634" xr:uid="{7DFC4488-1630-4F51-A901-0F7285CA2CDC}"/>
+    <hyperlink ref="F10" r:id="rId635" xr:uid="{D2F028E4-2308-4C55-9BBA-7A9823FDA7C4}"/>
+    <hyperlink ref="F11" r:id="rId636" xr:uid="{7F8DA16D-2E6D-4DC9-82EB-923D0B756653}"/>
+    <hyperlink ref="F12" r:id="rId637" xr:uid="{1BB007D2-9B1D-4861-A0A0-D578C908942C}"/>
+    <hyperlink ref="F13" r:id="rId638" xr:uid="{084BFA5D-3BA8-43A6-9EE1-40BF3B58F729}"/>
+    <hyperlink ref="F14" r:id="rId639" xr:uid="{31F1AD34-9BAF-4DC0-9823-0D16324080E0}"/>
+    <hyperlink ref="F15" r:id="rId640" xr:uid="{FC773698-4EF8-41A7-BF62-810D693798A8}"/>
+    <hyperlink ref="F16" r:id="rId641" xr:uid="{4B0BBD60-306F-4E93-B164-0CDD9EE2EA74}"/>
+    <hyperlink ref="F17" r:id="rId642" xr:uid="{62EF3782-F1D2-47E4-9DFB-AB5A186923BB}"/>
+    <hyperlink ref="F18" r:id="rId643" xr:uid="{B338A363-69CA-4869-BD97-FF9359BFDB40}"/>
+    <hyperlink ref="F19" r:id="rId644" xr:uid="{2EF956F5-4A2D-46C7-B0A9-352BA9412883}"/>
+    <hyperlink ref="F20" r:id="rId645" xr:uid="{BE49C8A6-C999-4ABA-AFDB-1A6CB8CDD67D}"/>
+    <hyperlink ref="F21" r:id="rId646" xr:uid="{83248069-1CF7-4C80-8FF9-BFBDF0987692}"/>
+    <hyperlink ref="F22" r:id="rId647" xr:uid="{40991D0B-72FD-45C8-99DB-D5CEF3F0A575}"/>
+    <hyperlink ref="F23" r:id="rId648" xr:uid="{2DF8F052-5940-4E65-81A7-39AA99312832}"/>
+    <hyperlink ref="F24" r:id="rId649" xr:uid="{1D87945F-9B24-4CB7-878E-C95DF70888DA}"/>
+    <hyperlink ref="F25" r:id="rId650" xr:uid="{CBB23D57-6A49-46ED-A012-2849E4F22D5C}"/>
+    <hyperlink ref="F26" r:id="rId651" xr:uid="{DF4E2EB6-B820-43E4-BEB3-4C7A7EF1F1A1}"/>
+    <hyperlink ref="F27" r:id="rId652" xr:uid="{4F3B2D2F-6F4E-4BF5-A6DB-F38F83DD7ADC}"/>
+    <hyperlink ref="F29" r:id="rId653" xr:uid="{5493C98A-616D-4511-87F5-4B78192A1BFD}"/>
+    <hyperlink ref="F30" r:id="rId654" xr:uid="{7F3C3F24-3842-4B5D-856A-FE13BC56F8D1}"/>
+    <hyperlink ref="F31" r:id="rId655" xr:uid="{5E7ACFBD-104F-4277-98CD-907D6A00424D}"/>
+    <hyperlink ref="F33" r:id="rId656" xr:uid="{90A1F627-9BE3-40B1-B00D-0B424DB0F9EA}"/>
+    <hyperlink ref="F35" r:id="rId657" xr:uid="{D3631AAE-EA98-4A6B-99E9-20885142D387}"/>
+    <hyperlink ref="F36" r:id="rId658" xr:uid="{4852E053-B520-4821-871E-C995F0D2C6EE}"/>
+    <hyperlink ref="F37" r:id="rId659" xr:uid="{E6FD604B-F4FB-4AE8-B41B-B78F187F41AD}"/>
+    <hyperlink ref="F38" r:id="rId660" xr:uid="{D616D140-EE84-4309-BBF1-94DCF7550824}"/>
+    <hyperlink ref="F39" r:id="rId661" xr:uid="{32DAED1F-A442-4EBB-9DA9-CCA3572BBC24}"/>
+    <hyperlink ref="F40" r:id="rId662" xr:uid="{0B8CA557-A9AA-433F-9AFB-C27E67F70585}"/>
+    <hyperlink ref="F44" r:id="rId663" xr:uid="{CEB0447E-F1C5-451E-99D0-3930B290E97E}"/>
+    <hyperlink ref="F45" r:id="rId664" xr:uid="{BDA78281-6E3D-4738-B7F7-5E3C6BEEDAD2}"/>
+    <hyperlink ref="F46" r:id="rId665" xr:uid="{E0717D49-7780-49CD-BA1A-DDE74F540B06}"/>
+    <hyperlink ref="F48" r:id="rId666" xr:uid="{21515846-ADAB-4DF3-9FE3-76820AC4657C}"/>
+    <hyperlink ref="F50" r:id="rId667" xr:uid="{FB258C56-8808-4326-AD3A-DFB8DCF47003}"/>
+    <hyperlink ref="F51" r:id="rId668" xr:uid="{7095461B-3E66-46B5-A4CF-C8F332FF6EA0}"/>
+    <hyperlink ref="F52" r:id="rId669" xr:uid="{68527004-997B-46B1-906B-722D4DE12A7E}"/>
+    <hyperlink ref="F53" r:id="rId670" xr:uid="{6B51DBB2-0F28-4A45-A062-D282864F4524}"/>
+    <hyperlink ref="F56" r:id="rId671" xr:uid="{1CF705B8-D67C-49B8-95B9-608692FA527C}"/>
+    <hyperlink ref="F57" r:id="rId672" xr:uid="{D2F8BF04-664C-4ECD-AD18-69FF1DA0D5CD}"/>
+    <hyperlink ref="F58" r:id="rId673" xr:uid="{9F98891D-E85B-40C4-BCF0-26D7733895D9}"/>
+    <hyperlink ref="F59" r:id="rId674" xr:uid="{FA8B1B34-D297-4A9F-9A68-3A8B24666114}"/>
+    <hyperlink ref="F60" r:id="rId675" xr:uid="{D06DCA9C-B34E-4C6A-923A-08D1EA522145}"/>
+    <hyperlink ref="F61" r:id="rId676" xr:uid="{D5928D3C-2642-45E7-8B3C-5E8A76E4B2FE}"/>
+    <hyperlink ref="F62" r:id="rId677" xr:uid="{6F366CAB-425D-4323-9EE4-4DC3581B6D7B}"/>
+    <hyperlink ref="F65" r:id="rId678" xr:uid="{99A90087-6D80-4552-9308-F7B03A0CBF0A}"/>
+    <hyperlink ref="F66" r:id="rId679" xr:uid="{F41DBDE1-EC45-4F65-98C1-E28A360053AD}"/>
+    <hyperlink ref="F67" r:id="rId680" xr:uid="{0BA0F4B7-25E4-4F79-8A1D-611C14072230}"/>
+    <hyperlink ref="F68" r:id="rId681" xr:uid="{8DEA756B-E841-41F9-9BC1-CED3525D4A5B}"/>
+    <hyperlink ref="F69" r:id="rId682" xr:uid="{534B7BB8-CEBF-46EE-B50B-2BB231B66119}"/>
+    <hyperlink ref="F70" r:id="rId683" xr:uid="{3619EC87-F4A6-4352-AED0-021085970221}"/>
+    <hyperlink ref="F71" r:id="rId684" xr:uid="{EE79BB00-8853-438A-92DF-2A5BC905EA11}"/>
+    <hyperlink ref="F72" r:id="rId685" xr:uid="{FE877C04-463D-4E64-A232-BDA4A19D46A0}"/>
+    <hyperlink ref="F73" r:id="rId686" xr:uid="{96FD594C-7602-429A-A888-A577B594148B}"/>
+    <hyperlink ref="F74" r:id="rId687" xr:uid="{AA5C3290-9F1C-4142-841E-0A551D5E5F2F}"/>
+    <hyperlink ref="F76" r:id="rId688" xr:uid="{4011FE09-0A2A-4B42-9CE1-CBFB0B4B76E8}"/>
+    <hyperlink ref="F77" r:id="rId689" xr:uid="{C3E668B7-16E0-46B8-A7CA-349B6403A054}"/>
+    <hyperlink ref="F78" r:id="rId690" xr:uid="{5B5A7DE9-4060-4AF8-9816-E16B0C70CEF4}"/>
+    <hyperlink ref="F79" r:id="rId691" xr:uid="{61342221-23CE-4C3F-8809-3B66EDF9BC08}"/>
+    <hyperlink ref="F81" r:id="rId692" xr:uid="{1C0E724A-4626-429D-B093-D4AB3E489661}"/>
+    <hyperlink ref="F82" r:id="rId693" xr:uid="{34BA50D2-4B46-4EEB-8000-1BD05CCF3448}"/>
+    <hyperlink ref="F83" r:id="rId694" xr:uid="{E8C9D81B-C249-4DC6-AE46-2C1C37B15B33}"/>
+    <hyperlink ref="F87" r:id="rId695" xr:uid="{B4148C27-715C-4166-87B4-95F99102C561}"/>
+    <hyperlink ref="F91" r:id="rId696" xr:uid="{8748DC97-611D-4A3C-BA8E-FFF5821C4865}"/>
+    <hyperlink ref="F92" r:id="rId697" xr:uid="{151D989A-BA3F-451B-B020-786EBEA16927}"/>
+    <hyperlink ref="F96" r:id="rId698" xr:uid="{1E4AE983-CFF3-4AB4-895C-8787A8717A82}"/>
+    <hyperlink ref="F101" r:id="rId699" xr:uid="{2DB03D20-F4F0-4BD0-8E65-FB0DA9F0EEB0}"/>
+    <hyperlink ref="F104" r:id="rId700" xr:uid="{199FAC66-1D34-49A3-9D4A-89BECF22E725}"/>
+    <hyperlink ref="F108" r:id="rId701" xr:uid="{1811BCA8-570C-4F04-84CC-74F1E321F0AF}"/>
+    <hyperlink ref="F111" r:id="rId702" xr:uid="{3814CE5F-3289-4F3F-A34E-3314A751A39F}"/>
+    <hyperlink ref="F113" r:id="rId703" xr:uid="{17EB7273-4CA1-45E3-B71C-656EFECCF651}"/>
+    <hyperlink ref="F114" r:id="rId704" xr:uid="{57B79406-EF33-4FFA-A8B2-59F2C1D1020C}"/>
+    <hyperlink ref="F116" r:id="rId705" xr:uid="{7CBFE354-95D9-48C6-9AEA-1E37EA7B2641}"/>
+    <hyperlink ref="F117" r:id="rId706" xr:uid="{FDBD5AD7-3A8B-482F-A2D7-DBD9299E20C1}"/>
+    <hyperlink ref="F120" r:id="rId707" xr:uid="{18F1DFE5-6B80-4EB1-8832-C8FBCFCC2890}"/>
+    <hyperlink ref="F124" r:id="rId708" xr:uid="{2C13B0B9-A53B-4F8F-99D6-8DDD20C0D7C3}"/>
+    <hyperlink ref="F125" r:id="rId709" xr:uid="{503D6164-B205-48DC-BEA2-C589929623E9}"/>
+    <hyperlink ref="F126" r:id="rId710" xr:uid="{15A611ED-60B7-4A0B-9C89-E130EC03D63F}"/>
+    <hyperlink ref="F127" r:id="rId711" xr:uid="{80CA3596-5D5A-412C-BC83-A00276044999}"/>
+    <hyperlink ref="F128" r:id="rId712" xr:uid="{F8B162BB-9F2A-4035-B5AF-0C85CC94D405}"/>
+    <hyperlink ref="F130" r:id="rId713" xr:uid="{72EB68A7-C157-45CA-B6DC-F1FC81910576}"/>
+    <hyperlink ref="F134" r:id="rId714" xr:uid="{FCCF8EA4-83E6-44B2-9976-3C7CD2BD322F}"/>
+    <hyperlink ref="F136" r:id="rId715" xr:uid="{B758ACCA-8FB5-41EF-8F8D-EFC73606B53C}"/>
+    <hyperlink ref="F137" r:id="rId716" xr:uid="{04CF4BAD-6914-4709-86FB-1EE3C15BFF32}"/>
+    <hyperlink ref="F138" r:id="rId717" xr:uid="{69C6937E-8B99-4B90-BAF3-46B2B6DFC963}"/>
+    <hyperlink ref="F139" r:id="rId718" xr:uid="{0DF96EC6-FE01-4EC7-B749-49BB7ED7D0D2}"/>
+    <hyperlink ref="F140" r:id="rId719" xr:uid="{B3027E0F-0FC3-42FA-8FF7-FB5C921F8196}"/>
+    <hyperlink ref="F141" r:id="rId720" xr:uid="{248F4C65-983F-4ADC-89D2-FFB0820107FD}"/>
+    <hyperlink ref="F144" r:id="rId721" xr:uid="{5610CE9F-63A2-4213-9509-01F2679CF00B}"/>
+    <hyperlink ref="F145" r:id="rId722" xr:uid="{CC4664DC-C7D3-470E-B42E-518F38E4C4E9}"/>
+    <hyperlink ref="F146" r:id="rId723" xr:uid="{A3B74093-B513-4785-AEC0-8BDB3307F80F}"/>
+    <hyperlink ref="F147" r:id="rId724" xr:uid="{F600C25F-4A01-49A9-86EC-D8205269DF1B}"/>
+    <hyperlink ref="F148" r:id="rId725" xr:uid="{55F007EF-4712-4466-8743-664415795A0F}"/>
+    <hyperlink ref="F150" r:id="rId726" xr:uid="{CBA808BD-0EAB-4B67-B663-915FCD80704A}"/>
+    <hyperlink ref="F161" r:id="rId727" xr:uid="{29D66841-F3E7-4968-B932-7B4CFBE509D1}"/>
+    <hyperlink ref="F163" r:id="rId728" xr:uid="{B949EAF4-C2EA-457E-955F-7BB00D9576C0}"/>
+    <hyperlink ref="F165" r:id="rId729" xr:uid="{F5B1D639-B8DD-476A-B502-AE3FBFE0031F}"/>
+    <hyperlink ref="F170" r:id="rId730" xr:uid="{38331FD0-8CE8-4481-9F8D-FB8F2969A77C}"/>
+    <hyperlink ref="F171" r:id="rId731" xr:uid="{D2AC8D92-C324-4F46-954A-470623AD66D5}"/>
+    <hyperlink ref="F173" r:id="rId732" xr:uid="{6C033CF8-D40C-4063-B68F-2C9819DE81D3}"/>
+    <hyperlink ref="F180" r:id="rId733" xr:uid="{C7783EFA-64C3-4CC2-8B64-A17362850F12}"/>
+    <hyperlink ref="F181" r:id="rId734" xr:uid="{7D214A62-3AE7-4C22-9DA4-FB5A85C1584C}"/>
+    <hyperlink ref="F187" r:id="rId735" xr:uid="{11399C46-3EA5-4F42-B9F9-9658519B1414}"/>
+    <hyperlink ref="F188" r:id="rId736" xr:uid="{E8975341-8818-41CC-AAFE-F77A5FBEDEBE}"/>
+    <hyperlink ref="F189" r:id="rId737" xr:uid="{2194B9F2-9DB0-43F4-B073-582233652412}"/>
+    <hyperlink ref="F197" r:id="rId738" xr:uid="{85E76C52-5462-4324-8576-F688BF7B8DB3}"/>
+    <hyperlink ref="F200" r:id="rId739" xr:uid="{DCF03A67-B764-451C-A91C-03BFEF3CFAA2}"/>
+    <hyperlink ref="F201" r:id="rId740" xr:uid="{A03DFCBA-2C81-481E-B820-A236FF97E633}"/>
+    <hyperlink ref="F202" r:id="rId741" xr:uid="{14A02A12-6BD7-4232-B8EB-91DE1663BC39}"/>
+    <hyperlink ref="F203" r:id="rId742" xr:uid="{DA7BB29D-70C0-4DAC-8600-28781D8BCED5}"/>
+    <hyperlink ref="F204" r:id="rId743" xr:uid="{1004F36C-4825-4CA6-97F2-1F5E300591C7}"/>
+    <hyperlink ref="F205" r:id="rId744" xr:uid="{6BE1F4E8-0572-4FB7-9ED8-7CCFB5CAAD52}"/>
+    <hyperlink ref="F206" r:id="rId745" xr:uid="{0231A43C-AE9A-47CD-9139-2CB23E46302F}"/>
+    <hyperlink ref="F207" r:id="rId746" xr:uid="{DA4CEE8E-F639-4EEA-BC26-7C375297B1A5}"/>
+    <hyperlink ref="F208" r:id="rId747" xr:uid="{C2B2D7C2-8286-431B-8001-DB33188EB032}"/>
+    <hyperlink ref="F209" r:id="rId748" xr:uid="{8D5A01BF-B4BF-4804-855E-844B1AD5B9AF}"/>
+    <hyperlink ref="F210" r:id="rId749" xr:uid="{25EC7027-97B0-43C5-9426-E90EEE6B9E0B}"/>
+    <hyperlink ref="F211" r:id="rId750" xr:uid="{FDADCA2B-0592-4F59-B5AE-F66428A66960}"/>
+    <hyperlink ref="F212" r:id="rId751" xr:uid="{367879B8-885C-4D68-AA4B-A46EC52FFDA1}"/>
+    <hyperlink ref="F214" r:id="rId752" xr:uid="{582F44F6-09B2-4F3B-ADB2-AEDB95BC9DEA}"/>
+    <hyperlink ref="F215" r:id="rId753" xr:uid="{97CE1B05-EFA0-4BD5-AD61-E8BACDE594AD}"/>
+    <hyperlink ref="F217" r:id="rId754" xr:uid="{92C68C39-07EA-4D68-BD3A-5415AAAC3375}"/>
+    <hyperlink ref="F218" r:id="rId755" xr:uid="{9C55CB91-5EC4-49FE-ABCF-1DBFF847BF4B}"/>
+    <hyperlink ref="F219" r:id="rId756" xr:uid="{1EB2D3FC-01D6-4677-853E-06E36ADC8114}"/>
+    <hyperlink ref="F221" r:id="rId757" xr:uid="{5139C1C7-622F-4B2B-BE26-C8F39F0B9DEC}"/>
+    <hyperlink ref="F222" r:id="rId758" xr:uid="{E12F3243-F1EA-47AE-9807-8736B3F714C4}"/>
+    <hyperlink ref="F223" r:id="rId759" xr:uid="{53C4B67E-F6AA-4498-8B42-670679938674}"/>
+    <hyperlink ref="F224" r:id="rId760" xr:uid="{C7ED010B-B6A9-4933-A50D-4A16DFB6D97B}"/>
+    <hyperlink ref="F225" r:id="rId761" xr:uid="{7EC3F8C1-4984-4F6E-B6E9-7B4950CEA6F5}"/>
+    <hyperlink ref="F226" r:id="rId762" xr:uid="{AACFE5D1-5CB8-4DB3-8096-696C9A771707}"/>
+    <hyperlink ref="F227" r:id="rId763" xr:uid="{E828EE64-6B6A-4CB1-90F1-3BC192EA5D5F}"/>
+    <hyperlink ref="F228" r:id="rId764" xr:uid="{AA917574-718C-433F-A137-A6111168EE1F}"/>
+    <hyperlink ref="F232" r:id="rId765" xr:uid="{F13106EF-B902-4F73-876D-FE39E810DA2D}"/>
+    <hyperlink ref="G2" r:id="rId766" xr:uid="{67298737-797C-4EA5-80E0-24A897D6AE4F}"/>
+    <hyperlink ref="G3" r:id="rId767" xr:uid="{B51786F5-05BE-4BEC-81FD-EE0AC138D32E}"/>
+    <hyperlink ref="G4" r:id="rId768" xr:uid="{E435E6AA-8ECD-405F-82D6-109B8662F0BA}"/>
+    <hyperlink ref="G9" r:id="rId769" xr:uid="{B919298B-0888-412E-91D1-4B1B114822D8}"/>
+    <hyperlink ref="G10" r:id="rId770" xr:uid="{BBE08254-E1B4-4861-BD7D-078D8AC9EFCD}"/>
+    <hyperlink ref="G14" r:id="rId771" xr:uid="{92896E4B-FA9D-4B2D-B07B-0F73435595CF}"/>
+    <hyperlink ref="G15" r:id="rId772" xr:uid="{89791CAF-5C51-4024-ACFE-3C1FC57D6399}"/>
+    <hyperlink ref="G20" r:id="rId773" xr:uid="{4FFAF9F0-C991-436E-B23D-DDF36453675D}"/>
+    <hyperlink ref="G21" r:id="rId774" xr:uid="{5E003DA0-15A4-4C4B-A672-3DBFF48B30DB}"/>
+    <hyperlink ref="G22" r:id="rId775" xr:uid="{EEEBBDCE-4F6C-4FD2-AAD7-053CDC99F939}"/>
+    <hyperlink ref="G23" r:id="rId776" xr:uid="{78074905-FA13-46F1-ADBD-60E5FD3F51A3}"/>
+    <hyperlink ref="G25" r:id="rId777" xr:uid="{B6F9F5D7-CC8D-4D80-9BD9-1F3B777DA141}"/>
+    <hyperlink ref="G26" r:id="rId778" xr:uid="{4CE8DE7C-20E8-455C-8442-76ECBDA71C14}"/>
+    <hyperlink ref="G29" r:id="rId779" xr:uid="{DEC4C3F5-547A-4BE5-AC4E-AAC3E316B47C}"/>
+    <hyperlink ref="G31" r:id="rId780" xr:uid="{AE289C55-AEA9-4BC7-8A97-93E9F844C89E}"/>
+    <hyperlink ref="G35" r:id="rId781" xr:uid="{E2EDE14B-F4CA-4949-A6C0-A9CCA1C0564B}"/>
+    <hyperlink ref="G36" r:id="rId782" xr:uid="{8B300756-5484-4616-84D1-3DE4FC9D4280}"/>
+    <hyperlink ref="G37" r:id="rId783" xr:uid="{D80D94C6-4579-4812-BD3F-DDF832B85765}"/>
+    <hyperlink ref="G38" r:id="rId784" xr:uid="{69D4C07D-0C3F-4608-B5C3-415DB5F412F2}"/>
+    <hyperlink ref="G43" r:id="rId785" xr:uid="{C1420233-DE6D-4436-9B90-95597D77E88B}"/>
+    <hyperlink ref="G45" r:id="rId786" xr:uid="{96EB5799-C1F7-48A8-A2C8-B6FEB9D58DF6}"/>
+    <hyperlink ref="G46" r:id="rId787" xr:uid="{D2ABC752-5E10-480B-8F73-4775CFDF056C}"/>
+    <hyperlink ref="G47" r:id="rId788" xr:uid="{DC28152C-7C35-417C-9008-321613CBF49C}"/>
+    <hyperlink ref="G48" r:id="rId789" xr:uid="{217E0475-67FA-4239-A696-F2E867C63469}"/>
+    <hyperlink ref="G50" r:id="rId790" xr:uid="{F4A0E0BA-ECA3-4F29-98CB-7A458018F3CD}"/>
+    <hyperlink ref="G60" r:id="rId791" xr:uid="{06CFB7A1-8B19-4346-B668-3A1A0EFA4E77}"/>
+    <hyperlink ref="G63" r:id="rId792" xr:uid="{ADC03EA2-50B3-4C1A-8138-7BEAD1647C02}"/>
+    <hyperlink ref="G76" r:id="rId793" xr:uid="{086AE656-EDCE-46C2-8048-76D41B8E870C}"/>
+    <hyperlink ref="G78" r:id="rId794" xr:uid="{B0844549-4EDB-4D4F-8914-DA9E7FF754A5}"/>
+    <hyperlink ref="G85" r:id="rId795" xr:uid="{F2BCCAAA-E019-4B52-86A1-6E7EFC481C5E}"/>
+    <hyperlink ref="G87" r:id="rId796" xr:uid="{2A7C8BDC-6D4A-4BD7-A524-D1BEE553C53B}"/>
+    <hyperlink ref="G93" r:id="rId797" xr:uid="{F1BA253C-AA03-4711-B06E-DF105B9DAFC0}"/>
+    <hyperlink ref="G99" r:id="rId798" xr:uid="{96B407D4-78EC-4317-B0FB-BB4DBC43782E}"/>
+    <hyperlink ref="G101" r:id="rId799" xr:uid="{E4BCE084-725C-4CBB-8B8C-F909274403D2}"/>
+    <hyperlink ref="G106" r:id="rId800" xr:uid="{63084308-2124-4339-BB50-B9A7B62DD9FA}"/>
+    <hyperlink ref="G116" r:id="rId801" xr:uid="{7F386B2B-F6D5-4260-8F39-CA66E4B25BCD}"/>
+    <hyperlink ref="G136" r:id="rId802" xr:uid="{15F3F54E-B878-49D5-BB68-B9BF9BB7CB4A}"/>
+    <hyperlink ref="G138" r:id="rId803" xr:uid="{4F256407-7F6C-4A3A-B743-6B0AA2195985}"/>
+    <hyperlink ref="G141" r:id="rId804" xr:uid="{80B3727E-9AF7-4021-992F-039FE2DB03EE}"/>
+    <hyperlink ref="G148" r:id="rId805" xr:uid="{1729B842-4E2D-4D30-B283-923DB317B1C7}"/>
+    <hyperlink ref="G150" r:id="rId806" xr:uid="{D3CACF43-F429-4183-9E37-A55B16286995}"/>
+    <hyperlink ref="G163" r:id="rId807" xr:uid="{331CA7EC-4476-4519-A9C6-E73B3E35BF17}"/>
+    <hyperlink ref="G165" r:id="rId808" xr:uid="{01E31CF9-381F-4BB8-B83F-05137DFFDB4A}"/>
+    <hyperlink ref="G170" r:id="rId809" xr:uid="{8B273239-91C3-4C52-91C8-4891B23890FA}"/>
+    <hyperlink ref="G173" r:id="rId810" xr:uid="{ACE5A301-D104-443E-B719-B8861F6B920E}"/>
+    <hyperlink ref="G178" r:id="rId811" xr:uid="{34B0316E-6396-458C-9193-19A3D94914F9}"/>
+    <hyperlink ref="G180" r:id="rId812" xr:uid="{147F5066-0C4A-48F9-B126-70A41C2D09A8}"/>
+    <hyperlink ref="G181" r:id="rId813" xr:uid="{69575E7B-84E5-4875-9346-8C4C83E94E57}"/>
+    <hyperlink ref="G191" r:id="rId814" xr:uid="{B03AFFFB-9222-47B8-9461-7C7F7C651DE9}"/>
+    <hyperlink ref="G192" r:id="rId815" xr:uid="{9FD1437A-188A-4749-ADE3-C1BAA2D87C43}"/>
+    <hyperlink ref="G193" r:id="rId816" xr:uid="{0C81C116-FA45-417A-A236-D69952F9DF8D}"/>
+    <hyperlink ref="G200" r:id="rId817" xr:uid="{5B1D43D2-0D30-480A-8041-A1C42EFF4D0C}"/>
+    <hyperlink ref="G202" r:id="rId818" xr:uid="{6CEE5BFC-D574-43F7-80DC-1D8F81DE5B1C}"/>
+    <hyperlink ref="G222" r:id="rId819" xr:uid="{D62570AD-C5A6-480A-8B7A-361349CA4DE5}"/>
+    <hyperlink ref="G237" r:id="rId820" xr:uid="{017ADEFA-74AE-433E-86EA-B6043762C580}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
